--- a/Full_MOSFET/FULL MOSFET ID VD COMBINED.xlsx
+++ b/Full_MOSFET/FULL MOSFET ID VD COMBINED.xlsx
@@ -8,19 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalbe\OneDrive\Desktop\ECE220 Lab4\ece220\Full_MOSFET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C27445C-177B-4726-A9F2-2A12C6EDFAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6301B2DE-5C58-4337-9487-0661702E1453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20um" sheetId="1" r:id="rId1"/>
     <sheet name="5um" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3773,14 +3768,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000">
+                  <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Voltage Output (V) </a:t>
+                  <a:t>Output Current (Amps)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5440,14 +5435,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000">
+                  <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Voltage Output (V) </a:t>
+                  <a:t>Output Current (Amps)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5605,6322 +5600,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="400x20"/>
-      <sheetName val="400x15"/>
-      <sheetName val="400x5"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="100um_x_5u"/>
-      <sheetName val="100um_x_10u"/>
-      <sheetName val="100um_x_15u"/>
-      <sheetName val="100um_x_20u"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Column2</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Column3</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Column4</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Column5</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Column6</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>Column7</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>Column8</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>ID8</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>Column10</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>VD</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>ID</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>ID2</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>ID3</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>ID4</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>ID5</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>ID6</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>ID7</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>ID8</v>
-          </cell>
-          <cell r="J2" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>0</v>
-          </cell>
-          <cell r="B3">
-            <v>-1.2615E-7</v>
-          </cell>
-          <cell r="C3">
-            <v>6.6498000000000004E-8</v>
-          </cell>
-          <cell r="D3">
-            <v>1.112E-7</v>
-          </cell>
-          <cell r="E3">
-            <v>1.6395000000000001E-7</v>
-          </cell>
-          <cell r="F3">
-            <v>7.5596999999999999E-8</v>
-          </cell>
-          <cell r="G3">
-            <v>1.7669999999999999E-7</v>
-          </cell>
-          <cell r="H3">
-            <v>1.1975E-7</v>
-          </cell>
-          <cell r="I3">
-            <v>1.5844999999999999E-7</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>0.05</v>
-          </cell>
-          <cell r="B4">
-            <v>2.9019999999999999E-6</v>
-          </cell>
-          <cell r="C4">
-            <v>6.2739000000000002E-6</v>
-          </cell>
-          <cell r="D4">
-            <v>1.1015E-5</v>
-          </cell>
-          <cell r="E4">
-            <v>1.63E-5</v>
-          </cell>
-          <cell r="F4">
-            <v>2.1854000000000001E-5</v>
-          </cell>
-          <cell r="G4">
-            <v>2.7223999999999999E-5</v>
-          </cell>
-          <cell r="H4">
-            <v>3.2839999999999997E-5</v>
-          </cell>
-          <cell r="I4">
-            <v>3.8300000000000003E-5</v>
-          </cell>
-          <cell r="J4" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>0.1</v>
-          </cell>
-          <cell r="B5">
-            <v>4.9049999999999996E-6</v>
-          </cell>
-          <cell r="C5">
-            <v>1.0382E-5</v>
-          </cell>
-          <cell r="D5">
-            <v>1.9089999999999998E-5</v>
-          </cell>
-          <cell r="E5">
-            <v>2.9414999999999999E-5</v>
-          </cell>
-          <cell r="F5">
-            <v>4.0095000000000002E-5</v>
-          </cell>
-          <cell r="G5">
-            <v>5.1165000000000002E-5</v>
-          </cell>
-          <cell r="H5">
-            <v>6.2019000000000004E-5</v>
-          </cell>
-          <cell r="I5">
-            <v>7.2904000000000005E-5</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>0.15</v>
-          </cell>
-          <cell r="B6">
-            <v>6.3269000000000004E-6</v>
-          </cell>
-          <cell r="C6">
-            <v>1.2795E-5</v>
-          </cell>
-          <cell r="D6">
-            <v>2.4640000000000001E-5</v>
-          </cell>
-          <cell r="E6">
-            <v>3.9669000000000003E-5</v>
-          </cell>
-          <cell r="F6">
-            <v>5.5630000000000001E-5</v>
-          </cell>
-          <cell r="G6">
-            <v>7.2051000000000005E-5</v>
-          </cell>
-          <cell r="H6">
-            <v>8.8352999999999999E-5</v>
-          </cell>
-          <cell r="I6">
-            <v>1.0480999999999999E-4</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>0.2</v>
-          </cell>
-          <cell r="B7">
-            <v>7.4965000000000001E-6</v>
-          </cell>
-          <cell r="C7">
-            <v>1.4345000000000001E-5</v>
-          </cell>
-          <cell r="D7">
-            <v>2.8075000000000001E-5</v>
-          </cell>
-          <cell r="E7">
-            <v>4.7049999999999998E-5</v>
-          </cell>
-          <cell r="F7">
-            <v>6.8041999999999997E-5</v>
-          </cell>
-          <cell r="G7">
-            <v>8.9709000000000005E-5</v>
-          </cell>
-          <cell r="H7">
-            <v>1.1155E-4</v>
-          </cell>
-          <cell r="I7">
-            <v>1.3334999999999999E-4</v>
-          </cell>
-          <cell r="J7" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>0.25</v>
-          </cell>
-          <cell r="B8">
-            <v>8.551E-6</v>
-          </cell>
-          <cell r="C8">
-            <v>1.5534000000000001E-5</v>
-          </cell>
-          <cell r="D8">
-            <v>3.0114E-5</v>
-          </cell>
-          <cell r="E8">
-            <v>5.1978999999999998E-5</v>
-          </cell>
-          <cell r="F8">
-            <v>7.7531E-5</v>
-          </cell>
-          <cell r="G8">
-            <v>1.0432E-4</v>
-          </cell>
-          <cell r="H8">
-            <v>1.315E-4</v>
-          </cell>
-          <cell r="I8">
-            <v>1.5880000000000001E-4</v>
-          </cell>
-          <cell r="J8" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>0.3</v>
-          </cell>
-          <cell r="B9">
-            <v>9.4207999999999997E-6</v>
-          </cell>
-          <cell r="C9">
-            <v>1.6524E-5</v>
-          </cell>
-          <cell r="D9">
-            <v>3.1404E-5</v>
-          </cell>
-          <cell r="E9">
-            <v>5.4965E-5</v>
-          </cell>
-          <cell r="F9">
-            <v>8.4326000000000005E-5</v>
-          </cell>
-          <cell r="G9">
-            <v>1.1605E-4</v>
-          </cell>
-          <cell r="H9">
-            <v>1.4845E-4</v>
-          </cell>
-          <cell r="I9">
-            <v>1.8100000000000001E-4</v>
-          </cell>
-          <cell r="J9" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>0.35</v>
-          </cell>
-          <cell r="B10">
-            <v>1.0251000000000001E-5</v>
-          </cell>
-          <cell r="C10">
-            <v>1.7399999999999999E-5</v>
-          </cell>
-          <cell r="D10">
-            <v>3.2398999999999999E-5</v>
-          </cell>
-          <cell r="E10">
-            <v>5.6743000000000002E-5</v>
-          </cell>
-          <cell r="F10">
-            <v>8.8848E-5</v>
-          </cell>
-          <cell r="G10">
-            <v>1.2495E-4</v>
-          </cell>
-          <cell r="H10">
-            <v>1.6244999999999999E-4</v>
-          </cell>
-          <cell r="I10">
-            <v>2.0034999999999999E-4</v>
-          </cell>
-          <cell r="J10" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>0.4</v>
-          </cell>
-          <cell r="B11">
-            <v>1.0985000000000001E-5</v>
-          </cell>
-          <cell r="C11">
-            <v>1.8195000000000001E-5</v>
-          </cell>
-          <cell r="D11">
-            <v>3.3253999999999997E-5</v>
-          </cell>
-          <cell r="E11">
-            <v>5.791E-5</v>
-          </cell>
-          <cell r="F11">
-            <v>9.1545000000000005E-5</v>
-          </cell>
-          <cell r="G11">
-            <v>1.3129999999999999E-4</v>
-          </cell>
-          <cell r="H11">
-            <v>1.7354999999999999E-4</v>
-          </cell>
-          <cell r="I11">
-            <v>2.1665000000000001E-4</v>
-          </cell>
-          <cell r="J11" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>0.45</v>
-          </cell>
-          <cell r="B12">
-            <v>1.172E-5</v>
-          </cell>
-          <cell r="C12">
-            <v>1.8904999999999999E-5</v>
-          </cell>
-          <cell r="D12">
-            <v>3.3998999999999998E-5</v>
-          </cell>
-          <cell r="E12">
-            <v>5.8794E-5</v>
-          </cell>
-          <cell r="F12">
-            <v>9.3183999999999994E-5</v>
-          </cell>
-          <cell r="G12">
-            <v>1.3549999999999999E-4</v>
-          </cell>
-          <cell r="H12">
-            <v>1.8200000000000001E-4</v>
-          </cell>
-          <cell r="I12">
-            <v>2.2995000000000001E-4</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>0.5</v>
-          </cell>
-          <cell r="B13">
-            <v>1.2325E-5</v>
-          </cell>
-          <cell r="C13">
-            <v>1.9559999999999999E-5</v>
-          </cell>
-          <cell r="D13">
-            <v>3.4678999999999998E-5</v>
-          </cell>
-          <cell r="E13">
-            <v>5.9509999999999998E-5</v>
-          </cell>
-          <cell r="F13">
-            <v>9.4250000000000001E-5</v>
-          </cell>
-          <cell r="G13">
-            <v>1.3799999999999999E-4</v>
-          </cell>
-          <cell r="H13">
-            <v>1.8794999999999999E-4</v>
-          </cell>
-          <cell r="I13">
-            <v>2.407E-4</v>
-          </cell>
-          <cell r="J13" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>0.55000000000000004</v>
-          </cell>
-          <cell r="B14">
-            <v>1.289E-5</v>
-          </cell>
-          <cell r="C14">
-            <v>2.0165000000000001E-5</v>
-          </cell>
-          <cell r="D14">
-            <v>3.5295E-5</v>
-          </cell>
-          <cell r="E14">
-            <v>6.0189000000000003E-5</v>
-          </cell>
-          <cell r="F14">
-            <v>9.5043000000000005E-5</v>
-          </cell>
-          <cell r="G14">
-            <v>1.3955E-4</v>
-          </cell>
-          <cell r="H14">
-            <v>1.9195E-4</v>
-          </cell>
-          <cell r="I14">
-            <v>2.4875E-4</v>
-          </cell>
-          <cell r="J14" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>0.6</v>
-          </cell>
-          <cell r="B15">
-            <v>1.341E-5</v>
-          </cell>
-          <cell r="C15">
-            <v>2.071E-5</v>
-          </cell>
-          <cell r="D15">
-            <v>3.5868999999999998E-5</v>
-          </cell>
-          <cell r="E15">
-            <v>6.0783999999999999E-5</v>
-          </cell>
-          <cell r="F15">
-            <v>9.5754999999999994E-5</v>
-          </cell>
-          <cell r="G15">
-            <v>1.406E-4</v>
-          </cell>
-          <cell r="H15">
-            <v>1.9445000000000001E-4</v>
-          </cell>
-          <cell r="I15">
-            <v>2.5455999999999998E-4</v>
-          </cell>
-          <cell r="J15" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>0.65</v>
-          </cell>
-          <cell r="B16">
-            <v>1.3879999999999999E-5</v>
-          </cell>
-          <cell r="C16">
-            <v>2.1225000000000001E-5</v>
-          </cell>
-          <cell r="D16">
-            <v>3.6374000000000001E-5</v>
-          </cell>
-          <cell r="E16">
-            <v>6.1326000000000002E-5</v>
-          </cell>
-          <cell r="F16">
-            <v>9.6354999999999995E-5</v>
-          </cell>
-          <cell r="G16">
-            <v>1.4139999999999999E-4</v>
-          </cell>
-          <cell r="H16">
-            <v>1.9594999999999999E-4</v>
-          </cell>
-          <cell r="I16">
-            <v>2.5836000000000001E-4</v>
-          </cell>
-          <cell r="J16" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>0.7</v>
-          </cell>
-          <cell r="B17">
-            <v>1.434E-5</v>
-          </cell>
-          <cell r="C17">
-            <v>2.1685E-5</v>
-          </cell>
-          <cell r="D17">
-            <v>3.6860000000000003E-5</v>
-          </cell>
-          <cell r="E17">
-            <v>6.1851000000000001E-5</v>
-          </cell>
-          <cell r="F17">
-            <v>9.6928000000000004E-5</v>
-          </cell>
-          <cell r="G17">
-            <v>1.4205000000000001E-4</v>
-          </cell>
-          <cell r="H17">
-            <v>1.9710999999999999E-4</v>
-          </cell>
-          <cell r="I17">
-            <v>2.6076000000000002E-4</v>
-          </cell>
-          <cell r="J17" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>0.75</v>
-          </cell>
-          <cell r="B18">
-            <v>1.4745E-5</v>
-          </cell>
-          <cell r="C18">
-            <v>2.213E-5</v>
-          </cell>
-          <cell r="D18">
-            <v>3.7305000000000003E-5</v>
-          </cell>
-          <cell r="E18">
-            <v>6.2304999999999994E-5</v>
-          </cell>
-          <cell r="F18">
-            <v>9.7456999999999999E-5</v>
-          </cell>
-          <cell r="G18">
-            <v>1.4265E-4</v>
-          </cell>
-          <cell r="H18">
-            <v>1.9785000000000001E-4</v>
-          </cell>
-          <cell r="I18">
-            <v>2.6225E-4</v>
-          </cell>
-          <cell r="J18" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>0.8</v>
-          </cell>
-          <cell r="B19">
-            <v>1.5119999999999999E-5</v>
-          </cell>
-          <cell r="C19">
-            <v>2.2518999999999999E-5</v>
-          </cell>
-          <cell r="D19">
-            <v>3.7709000000000001E-5</v>
-          </cell>
-          <cell r="E19">
-            <v>6.2770999999999999E-5</v>
-          </cell>
-          <cell r="F19">
-            <v>9.7874000000000005E-5</v>
-          </cell>
-          <cell r="G19">
-            <v>1.4325000000000001E-4</v>
-          </cell>
-          <cell r="H19">
-            <v>1.986E-4</v>
-          </cell>
-          <cell r="I19">
-            <v>2.633E-4</v>
-          </cell>
-          <cell r="J19" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>0.85</v>
-          </cell>
-          <cell r="B20">
-            <v>1.5475E-5</v>
-          </cell>
-          <cell r="C20">
-            <v>2.2904999999999998E-5</v>
-          </cell>
-          <cell r="D20">
-            <v>3.8130000000000003E-5</v>
-          </cell>
-          <cell r="E20">
-            <v>6.3170000000000007E-5</v>
-          </cell>
-          <cell r="F20">
-            <v>9.8403E-5</v>
-          </cell>
-          <cell r="G20">
-            <v>1.4375E-4</v>
-          </cell>
-          <cell r="H20">
-            <v>1.9914999999999999E-4</v>
-          </cell>
-          <cell r="I20">
-            <v>2.6415E-4</v>
-          </cell>
-          <cell r="J20" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>0.9</v>
-          </cell>
-          <cell r="B21">
-            <v>1.5775000000000001E-5</v>
-          </cell>
-          <cell r="C21">
-            <v>2.3238999999999999E-5</v>
-          </cell>
-          <cell r="D21">
-            <v>3.8475E-5</v>
-          </cell>
-          <cell r="E21">
-            <v>6.3530999999999999E-5</v>
-          </cell>
-          <cell r="F21">
-            <v>9.878E-5</v>
-          </cell>
-          <cell r="G21">
-            <v>1.4420000000000001E-4</v>
-          </cell>
-          <cell r="H21">
-            <v>1.996E-4</v>
-          </cell>
-          <cell r="I21">
-            <v>2.6485000000000001E-4</v>
-          </cell>
-          <cell r="J21" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>0.95</v>
-          </cell>
-          <cell r="B22">
-            <v>1.6084999999999999E-5</v>
-          </cell>
-          <cell r="C22">
-            <v>2.357E-5</v>
-          </cell>
-          <cell r="D22">
-            <v>3.8819000000000002E-5</v>
-          </cell>
-          <cell r="E22">
-            <v>6.3904000000000003E-5</v>
-          </cell>
-          <cell r="F22">
-            <v>9.9166999999999994E-5</v>
-          </cell>
-          <cell r="G22">
-            <v>1.4459999999999999E-4</v>
-          </cell>
-          <cell r="H22">
-            <v>2.0024999999999999E-4</v>
-          </cell>
-          <cell r="I22">
-            <v>2.6554999999999998E-4</v>
-          </cell>
-          <cell r="J22" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>1</v>
-          </cell>
-          <cell r="B23">
-            <v>1.6354999999999998E-5</v>
-          </cell>
-          <cell r="C23">
-            <v>2.3859999999999999E-5</v>
-          </cell>
-          <cell r="D23">
-            <v>3.9125000000000002E-5</v>
-          </cell>
-          <cell r="E23">
-            <v>6.4224E-5</v>
-          </cell>
-          <cell r="F23">
-            <v>9.9531999999999995E-5</v>
-          </cell>
-          <cell r="G23">
-            <v>1.4505E-4</v>
-          </cell>
-          <cell r="H23">
-            <v>2.007E-4</v>
-          </cell>
-          <cell r="I23">
-            <v>2.6611000000000001E-4</v>
-          </cell>
-          <cell r="J23" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>1.05</v>
-          </cell>
-          <cell r="B24">
-            <v>1.6614999999999999E-5</v>
-          </cell>
-          <cell r="C24">
-            <v>2.4139999999999999E-5</v>
-          </cell>
-          <cell r="D24">
-            <v>3.9399E-5</v>
-          </cell>
-          <cell r="E24">
-            <v>6.4529000000000005E-5</v>
-          </cell>
-          <cell r="F24">
-            <v>9.9834000000000007E-5</v>
-          </cell>
-          <cell r="G24">
-            <v>1.4545000000000001E-4</v>
-          </cell>
-          <cell r="H24">
-            <v>2.0120000000000001E-4</v>
-          </cell>
-          <cell r="I24">
-            <v>2.6666E-4</v>
-          </cell>
-          <cell r="J24" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="B25">
-            <v>1.6860000000000001E-5</v>
-          </cell>
-          <cell r="C25">
-            <v>2.44E-5</v>
-          </cell>
-          <cell r="D25">
-            <v>3.9703999999999998E-5</v>
-          </cell>
-          <cell r="E25">
-            <v>6.4845999999999995E-5</v>
-          </cell>
-          <cell r="F25">
-            <v>1.0024E-4</v>
-          </cell>
-          <cell r="G25">
-            <v>1.4584999999999999E-4</v>
-          </cell>
-          <cell r="H25">
-            <v>2.0154999999999999E-4</v>
-          </cell>
-          <cell r="I25">
-            <v>2.6715000000000002E-4</v>
-          </cell>
-          <cell r="J25" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>1.1499999999999999</v>
-          </cell>
-          <cell r="B26">
-            <v>1.7065E-5</v>
-          </cell>
-          <cell r="C26">
-            <v>2.4634000000000002E-5</v>
-          </cell>
-          <cell r="D26">
-            <v>3.9928999999999997E-5</v>
-          </cell>
-          <cell r="E26">
-            <v>6.5073000000000005E-5</v>
-          </cell>
-          <cell r="F26">
-            <v>1.0049E-4</v>
-          </cell>
-          <cell r="G26">
-            <v>1.4615E-4</v>
-          </cell>
-          <cell r="H26">
-            <v>2.019E-4</v>
-          </cell>
-          <cell r="I26">
-            <v>2.677E-4</v>
-          </cell>
-          <cell r="J26" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>1.2</v>
-          </cell>
-          <cell r="B27">
-            <v>1.7283999999999999E-5</v>
-          </cell>
-          <cell r="C27">
-            <v>2.4854999999999998E-5</v>
-          </cell>
-          <cell r="D27">
-            <v>4.0170000000000003E-5</v>
-          </cell>
-          <cell r="E27">
-            <v>6.5375000000000003E-5</v>
-          </cell>
-          <cell r="F27">
-            <v>1.0077999999999999E-4</v>
-          </cell>
-          <cell r="G27">
-            <v>1.4650000000000001E-4</v>
-          </cell>
-          <cell r="H27">
-            <v>2.0235000000000001E-4</v>
-          </cell>
-          <cell r="I27">
-            <v>2.6805999999999998E-4</v>
-          </cell>
-          <cell r="J27" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>1.25</v>
-          </cell>
-          <cell r="B28">
-            <v>1.7473999999999999E-5</v>
-          </cell>
-          <cell r="C28">
-            <v>2.5069E-5</v>
-          </cell>
-          <cell r="D28">
-            <v>4.0389999999999998E-5</v>
-          </cell>
-          <cell r="E28">
-            <v>6.5610000000000004E-5</v>
-          </cell>
-          <cell r="F28">
-            <v>1.0106E-4</v>
-          </cell>
-          <cell r="G28">
-            <v>1.4679999999999999E-4</v>
-          </cell>
-          <cell r="H28">
-            <v>2.0269999999999999E-4</v>
-          </cell>
-          <cell r="I28">
-            <v>2.6855E-4</v>
-          </cell>
-          <cell r="J28" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>1.3</v>
-          </cell>
-          <cell r="B29">
-            <v>1.766E-5</v>
-          </cell>
-          <cell r="C29">
-            <v>2.5265E-5</v>
-          </cell>
-          <cell r="D29">
-            <v>4.0604E-5</v>
-          </cell>
-          <cell r="E29">
-            <v>6.5829999999999998E-5</v>
-          </cell>
-          <cell r="F29">
-            <v>1.0131E-4</v>
-          </cell>
-          <cell r="G29">
-            <v>1.471E-4</v>
-          </cell>
-          <cell r="H29">
-            <v>2.031E-4</v>
-          </cell>
-          <cell r="I29">
-            <v>2.6891000000000003E-4</v>
-          </cell>
-          <cell r="J29" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>1.35</v>
-          </cell>
-          <cell r="B30">
-            <v>1.7839E-5</v>
-          </cell>
-          <cell r="C30">
-            <v>2.546E-5</v>
-          </cell>
-          <cell r="D30">
-            <v>4.0825000000000003E-5</v>
-          </cell>
-          <cell r="E30">
-            <v>6.6079000000000002E-5</v>
-          </cell>
-          <cell r="F30">
-            <v>1.0157000000000001E-4</v>
-          </cell>
-          <cell r="G30">
-            <v>1.474E-4</v>
-          </cell>
-          <cell r="H30">
-            <v>2.0335000000000001E-4</v>
-          </cell>
-          <cell r="I30">
-            <v>2.6930999999999998E-4</v>
-          </cell>
-          <cell r="J30" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>1.4</v>
-          </cell>
-          <cell r="B31">
-            <v>1.7989E-5</v>
-          </cell>
-          <cell r="C31">
-            <v>2.563E-5</v>
-          </cell>
-          <cell r="D31">
-            <v>4.1010000000000002E-5</v>
-          </cell>
-          <cell r="E31">
-            <v>6.6239000000000001E-5</v>
-          </cell>
-          <cell r="F31">
-            <v>1.0176E-4</v>
-          </cell>
-          <cell r="G31">
-            <v>1.4760000000000001E-4</v>
-          </cell>
-          <cell r="H31">
-            <v>2.0359999999999999E-4</v>
-          </cell>
-          <cell r="I31">
-            <v>2.6960999999999999E-4</v>
-          </cell>
-          <cell r="J31" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>1.45</v>
-          </cell>
-          <cell r="B32">
-            <v>1.8150000000000001E-5</v>
-          </cell>
-          <cell r="C32">
-            <v>2.58E-5</v>
-          </cell>
-          <cell r="D32">
-            <v>4.1189000000000002E-5</v>
-          </cell>
-          <cell r="E32">
-            <v>6.6474000000000001E-5</v>
-          </cell>
-          <cell r="F32">
-            <v>1.0200999999999999E-4</v>
-          </cell>
-          <cell r="G32">
-            <v>1.4784999999999999E-4</v>
-          </cell>
-          <cell r="H32">
-            <v>2.0395E-4</v>
-          </cell>
-          <cell r="I32">
-            <v>2.7001E-4</v>
-          </cell>
-          <cell r="J32" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>1.5</v>
-          </cell>
-          <cell r="B33">
-            <v>1.8289999999999999E-5</v>
-          </cell>
-          <cell r="C33">
-            <v>2.5964000000000001E-5</v>
-          </cell>
-          <cell r="D33">
-            <v>4.1363999999999999E-5</v>
-          </cell>
-          <cell r="E33">
-            <v>6.6623000000000002E-5</v>
-          </cell>
-          <cell r="F33">
-            <v>1.022E-4</v>
-          </cell>
-          <cell r="G33">
-            <v>1.4809999999999999E-4</v>
-          </cell>
-          <cell r="H33">
-            <v>2.042E-4</v>
-          </cell>
-          <cell r="I33">
-            <v>2.7040000000000001E-4</v>
-          </cell>
-          <cell r="J33" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>1.55</v>
-          </cell>
-          <cell r="B34">
-            <v>1.8423999999999998E-5</v>
-          </cell>
-          <cell r="C34">
-            <v>2.6098999999999999E-5</v>
-          </cell>
-          <cell r="D34">
-            <v>4.1505000000000003E-5</v>
-          </cell>
-          <cell r="E34">
-            <v>6.6805999999999997E-5</v>
-          </cell>
-          <cell r="F34">
-            <v>1.0242E-4</v>
-          </cell>
-          <cell r="G34">
-            <v>1.4835E-4</v>
-          </cell>
-          <cell r="H34">
-            <v>2.0450000000000001E-4</v>
-          </cell>
-          <cell r="I34">
-            <v>2.7061000000000001E-4</v>
-          </cell>
-          <cell r="J34" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>1.6</v>
-          </cell>
-          <cell r="B35">
-            <v>1.8559E-5</v>
-          </cell>
-          <cell r="C35">
-            <v>2.6254999999999998E-5</v>
-          </cell>
-          <cell r="D35">
-            <v>4.1680000000000001E-5</v>
-          </cell>
-          <cell r="E35">
-            <v>6.6999E-5</v>
-          </cell>
-          <cell r="F35">
-            <v>1.0264000000000001E-4</v>
-          </cell>
-          <cell r="G35">
-            <v>1.4860000000000001E-4</v>
-          </cell>
-          <cell r="H35">
-            <v>2.0474999999999999E-4</v>
-          </cell>
-          <cell r="I35">
-            <v>2.7095E-4</v>
-          </cell>
-          <cell r="J35" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>1.65</v>
-          </cell>
-          <cell r="B36">
-            <v>1.8675E-5</v>
-          </cell>
-          <cell r="C36">
-            <v>2.6384E-5</v>
-          </cell>
-          <cell r="D36">
-            <v>4.1820000000000003E-5</v>
-          </cell>
-          <cell r="E36">
-            <v>6.7119000000000006E-5</v>
-          </cell>
-          <cell r="F36">
-            <v>1.0278E-4</v>
-          </cell>
-          <cell r="G36">
-            <v>1.4875000000000001E-4</v>
-          </cell>
-          <cell r="H36">
-            <v>2.0494999999999999E-4</v>
-          </cell>
-          <cell r="I36">
-            <v>2.7116E-4</v>
-          </cell>
-          <cell r="J36" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>1.7</v>
-          </cell>
-          <cell r="B37">
-            <v>1.8794999999999999E-5</v>
-          </cell>
-          <cell r="C37">
-            <v>2.6519000000000001E-5</v>
-          </cell>
-          <cell r="D37">
-            <v>4.1965000000000002E-5</v>
-          </cell>
-          <cell r="E37">
-            <v>6.7304999999999993E-5</v>
-          </cell>
-          <cell r="F37">
-            <v>1.0295E-4</v>
-          </cell>
-          <cell r="G37">
-            <v>1.4899999999999999E-4</v>
-          </cell>
-          <cell r="H37">
-            <v>2.052E-4</v>
-          </cell>
-          <cell r="I37">
-            <v>2.7156000000000001E-4</v>
-          </cell>
-          <cell r="J37" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>1.75</v>
-          </cell>
-          <cell r="B38">
-            <v>1.8904999999999999E-5</v>
-          </cell>
-          <cell r="C38">
-            <v>2.6628999999999999E-5</v>
-          </cell>
-          <cell r="D38">
-            <v>4.2109E-5</v>
-          </cell>
-          <cell r="E38">
-            <v>6.7434999999999994E-5</v>
-          </cell>
-          <cell r="F38">
-            <v>1.0310999999999999E-4</v>
-          </cell>
-          <cell r="G38">
-            <v>1.4919999999999999E-4</v>
-          </cell>
-          <cell r="H38">
-            <v>2.0545000000000001E-4</v>
-          </cell>
-          <cell r="I38">
-            <v>2.7179999999999999E-4</v>
-          </cell>
-          <cell r="J38" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>1.8</v>
-          </cell>
-          <cell r="B39">
-            <v>1.9015E-5</v>
-          </cell>
-          <cell r="C39">
-            <v>2.6755E-5</v>
-          </cell>
-          <cell r="D39">
-            <v>4.2200000000000003E-5</v>
-          </cell>
-          <cell r="E39">
-            <v>6.7572999999999998E-5</v>
-          </cell>
-          <cell r="F39">
-            <v>1.0327000000000001E-4</v>
-          </cell>
-          <cell r="G39">
-            <v>1.4935E-4</v>
-          </cell>
-          <cell r="H39">
-            <v>2.0576000000000001E-4</v>
-          </cell>
-          <cell r="I39">
-            <v>2.721E-4</v>
-          </cell>
-          <cell r="J39" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>1.85</v>
-          </cell>
-          <cell r="B40">
-            <v>1.912E-5</v>
-          </cell>
-          <cell r="C40">
-            <v>2.6874999999999999E-5</v>
-          </cell>
-          <cell r="D40">
-            <v>4.2364000000000003E-5</v>
-          </cell>
-          <cell r="E40">
-            <v>6.7741000000000001E-5</v>
-          </cell>
-          <cell r="F40">
-            <v>1.0347E-4</v>
-          </cell>
-          <cell r="G40">
-            <v>1.496E-4</v>
-          </cell>
-          <cell r="H40">
-            <v>2.0584999999999999E-4</v>
-          </cell>
-          <cell r="I40">
-            <v>2.7234999999999998E-4</v>
-          </cell>
-          <cell r="J40" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>1.9</v>
-          </cell>
-          <cell r="B41">
-            <v>1.9208999999999999E-5</v>
-          </cell>
-          <cell r="C41">
-            <v>2.6979999999999999E-5</v>
-          </cell>
-          <cell r="D41">
-            <v>4.2469999999999998E-5</v>
-          </cell>
-          <cell r="E41">
-            <v>6.7848999999999994E-5</v>
-          </cell>
-          <cell r="F41">
-            <v>1.0357999999999999E-4</v>
-          </cell>
-          <cell r="G41">
-            <v>1.4975000000000001E-4</v>
-          </cell>
-          <cell r="H41">
-            <v>2.0615E-4</v>
-          </cell>
-          <cell r="I41">
-            <v>2.7255999999999998E-4</v>
-          </cell>
-          <cell r="J41" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>1.95</v>
-          </cell>
-          <cell r="B42">
-            <v>1.931E-5</v>
-          </cell>
-          <cell r="C42">
-            <v>2.7080000000000002E-5</v>
-          </cell>
-          <cell r="D42">
-            <v>4.2583999999999998E-5</v>
-          </cell>
-          <cell r="E42">
-            <v>6.7997999999999995E-5</v>
-          </cell>
-          <cell r="F42">
-            <v>1.0373E-4</v>
-          </cell>
-          <cell r="G42">
-            <v>1.4999999999999999E-4</v>
-          </cell>
-          <cell r="H42">
-            <v>2.063E-4</v>
-          </cell>
-          <cell r="I42">
-            <v>2.7274999999999999E-4</v>
-          </cell>
-          <cell r="J42" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>2</v>
-          </cell>
-          <cell r="B43">
-            <v>1.9398999999999998E-5</v>
-          </cell>
-          <cell r="C43">
-            <v>2.7175E-5</v>
-          </cell>
-          <cell r="D43">
-            <v>4.2713999999999998E-5</v>
-          </cell>
-          <cell r="E43">
-            <v>6.8120999999999994E-5</v>
-          </cell>
-          <cell r="F43">
-            <v>1.0388E-4</v>
-          </cell>
-          <cell r="G43">
-            <v>1.5009999999999999E-4</v>
-          </cell>
-          <cell r="H43">
-            <v>2.065E-4</v>
-          </cell>
-          <cell r="I43">
-            <v>2.7305E-4</v>
-          </cell>
-          <cell r="J43" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>2.0499999999999998</v>
-          </cell>
-          <cell r="B44">
-            <v>1.9485000000000001E-5</v>
-          </cell>
-          <cell r="C44">
-            <v>2.7270000000000001E-5</v>
-          </cell>
-          <cell r="D44">
-            <v>4.2799999999999997E-5</v>
-          </cell>
-          <cell r="E44">
-            <v>6.8232000000000007E-5</v>
-          </cell>
-          <cell r="F44">
-            <v>1.0399E-4</v>
-          </cell>
-          <cell r="G44">
-            <v>1.5019999999999999E-4</v>
-          </cell>
-          <cell r="H44">
-            <v>2.0675000000000001E-4</v>
-          </cell>
-          <cell r="I44">
-            <v>2.7329999999999998E-4</v>
-          </cell>
-          <cell r="J44" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>2.1</v>
-          </cell>
-          <cell r="B45">
-            <v>1.9579999999999999E-5</v>
-          </cell>
-          <cell r="C45">
-            <v>2.7373999999999999E-5</v>
-          </cell>
-          <cell r="D45">
-            <v>4.2929999999999997E-5</v>
-          </cell>
-          <cell r="E45">
-            <v>6.8388999999999999E-5</v>
-          </cell>
-          <cell r="F45">
-            <v>1.0419E-4</v>
-          </cell>
-          <cell r="G45">
-            <v>1.5045E-4</v>
-          </cell>
-          <cell r="H45">
-            <v>2.0694999999999999E-4</v>
-          </cell>
-          <cell r="I45">
-            <v>2.7349999999999998E-4</v>
-          </cell>
-          <cell r="J45" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>2.15</v>
-          </cell>
-          <cell r="B46">
-            <v>1.9644E-5</v>
-          </cell>
-          <cell r="C46">
-            <v>2.7464999999999999E-5</v>
-          </cell>
-          <cell r="D46">
-            <v>4.3010000000000003E-5</v>
-          </cell>
-          <cell r="E46">
-            <v>6.8462999999999998E-5</v>
-          </cell>
-          <cell r="F46">
-            <v>1.0429000000000001E-4</v>
-          </cell>
-          <cell r="G46">
-            <v>1.506E-4</v>
-          </cell>
-          <cell r="H46">
-            <v>2.0709999999999999E-4</v>
-          </cell>
-          <cell r="I46">
-            <v>2.7375000000000001E-4</v>
-          </cell>
-          <cell r="J46" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>2.2000000000000002</v>
-          </cell>
-          <cell r="B47">
-            <v>1.9738999999999999E-5</v>
-          </cell>
-          <cell r="C47">
-            <v>2.7555E-5</v>
-          </cell>
-          <cell r="D47">
-            <v>4.3120000000000001E-5</v>
-          </cell>
-          <cell r="E47">
-            <v>6.8597999999999996E-5</v>
-          </cell>
-          <cell r="F47">
-            <v>1.0442000000000001E-4</v>
-          </cell>
-          <cell r="G47">
-            <v>1.507E-4</v>
-          </cell>
-          <cell r="H47">
-            <v>2.073E-4</v>
-          </cell>
-          <cell r="I47">
-            <v>2.7396000000000001E-4</v>
-          </cell>
-          <cell r="J47" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>2.25</v>
-          </cell>
-          <cell r="B48">
-            <v>1.9814999999999999E-5</v>
-          </cell>
-          <cell r="C48">
-            <v>2.7634999999999999E-5</v>
-          </cell>
-          <cell r="D48">
-            <v>4.3210000000000001E-5</v>
-          </cell>
-          <cell r="E48">
-            <v>6.8705E-5</v>
-          </cell>
-          <cell r="F48">
-            <v>1.0457E-4</v>
-          </cell>
-          <cell r="G48">
-            <v>1.5090000000000001E-4</v>
-          </cell>
-          <cell r="H48">
-            <v>2.0745E-4</v>
-          </cell>
-          <cell r="I48">
-            <v>2.7426000000000002E-4</v>
-          </cell>
-          <cell r="J48" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>2.2999999999999998</v>
-          </cell>
-          <cell r="B49">
-            <v>1.9885E-5</v>
-          </cell>
-          <cell r="C49">
-            <v>2.7725E-5</v>
-          </cell>
-          <cell r="D49">
-            <v>4.3294999999999998E-5</v>
-          </cell>
-          <cell r="E49">
-            <v>6.8794999999999994E-5</v>
-          </cell>
-          <cell r="F49">
-            <v>1.0471000000000001E-4</v>
-          </cell>
-          <cell r="G49">
-            <v>1.5100000000000001E-4</v>
-          </cell>
-          <cell r="H49">
-            <v>2.0765000000000001E-4</v>
-          </cell>
-          <cell r="I49">
-            <v>2.7444999999999998E-4</v>
-          </cell>
-          <cell r="J49" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>2.35</v>
-          </cell>
-          <cell r="B50">
-            <v>1.9959999999999999E-5</v>
-          </cell>
-          <cell r="C50">
-            <v>2.7809000000000001E-5</v>
-          </cell>
-          <cell r="D50">
-            <v>4.3405000000000002E-5</v>
-          </cell>
-          <cell r="E50">
-            <v>6.8929000000000004E-5</v>
-          </cell>
-          <cell r="F50">
-            <v>1.0484000000000001E-4</v>
-          </cell>
-          <cell r="G50">
-            <v>1.5114999999999999E-4</v>
-          </cell>
-          <cell r="H50">
-            <v>2.0775000000000001E-4</v>
-          </cell>
-          <cell r="I50">
-            <v>2.7465999999999998E-4</v>
-          </cell>
-          <cell r="J50" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>2.4</v>
-          </cell>
-          <cell r="B51">
-            <v>2.003E-5</v>
-          </cell>
-          <cell r="C51">
-            <v>2.7885000000000002E-5</v>
-          </cell>
-          <cell r="D51">
-            <v>4.3479999999999997E-5</v>
-          </cell>
-          <cell r="E51">
-            <v>6.8973999999999994E-5</v>
-          </cell>
-          <cell r="F51">
-            <v>1.0495E-4</v>
-          </cell>
-          <cell r="G51">
-            <v>1.5129999999999999E-4</v>
-          </cell>
-          <cell r="H51">
-            <v>2.0801000000000001E-4</v>
-          </cell>
-          <cell r="I51">
-            <v>2.7481000000000001E-4</v>
-          </cell>
-          <cell r="J51" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>2.4500000000000002</v>
-          </cell>
-          <cell r="B52">
-            <v>2.0109999999999999E-5</v>
-          </cell>
-          <cell r="C52">
-            <v>2.796E-5</v>
-          </cell>
-          <cell r="D52">
-            <v>4.3569000000000002E-5</v>
-          </cell>
-          <cell r="E52">
-            <v>6.9134000000000006E-5</v>
-          </cell>
-          <cell r="F52">
-            <v>1.05E-4</v>
-          </cell>
-          <cell r="G52">
-            <v>1.5139999999999999E-4</v>
-          </cell>
-          <cell r="H52">
-            <v>2.0814999999999999E-4</v>
-          </cell>
-          <cell r="I52">
-            <v>2.7495999999999998E-4</v>
-          </cell>
-          <cell r="J52" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>2.5</v>
-          </cell>
-          <cell r="B53">
-            <v>2.0174999999999999E-5</v>
-          </cell>
-          <cell r="C53">
-            <v>2.8030000000000001E-5</v>
-          </cell>
-          <cell r="D53">
-            <v>4.3655000000000001E-5</v>
-          </cell>
-          <cell r="E53">
-            <v>6.9201000000000004E-5</v>
-          </cell>
-          <cell r="F53">
-            <v>1.0509999999999999E-4</v>
-          </cell>
-          <cell r="G53">
-            <v>1.516E-4</v>
-          </cell>
-          <cell r="H53">
-            <v>2.0829999999999999E-4</v>
-          </cell>
-          <cell r="I53">
-            <v>2.7514999999999999E-4</v>
-          </cell>
-          <cell r="J53" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>2.5499999999999998</v>
-          </cell>
-          <cell r="B54">
-            <v>2.0245E-5</v>
-          </cell>
-          <cell r="C54">
-            <v>2.8119E-5</v>
-          </cell>
-          <cell r="D54">
-            <v>4.3729000000000001E-5</v>
-          </cell>
-          <cell r="E54">
-            <v>6.9282999999999994E-5</v>
-          </cell>
-          <cell r="F54">
-            <v>1.0525E-4</v>
-          </cell>
-          <cell r="G54">
-            <v>1.517E-4</v>
-          </cell>
-          <cell r="H54">
-            <v>2.085E-4</v>
-          </cell>
-          <cell r="I54">
-            <v>2.7545E-4</v>
-          </cell>
-          <cell r="J54" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>2.6</v>
-          </cell>
-          <cell r="B55">
-            <v>2.0315000000000001E-5</v>
-          </cell>
-          <cell r="C55">
-            <v>2.8195E-5</v>
-          </cell>
-          <cell r="D55">
-            <v>4.3834000000000001E-5</v>
-          </cell>
-          <cell r="E55">
-            <v>6.9398000000000002E-5</v>
-          </cell>
-          <cell r="F55">
-            <v>1.0535E-4</v>
-          </cell>
-          <cell r="G55">
-            <v>1.5190000000000001E-4</v>
-          </cell>
-          <cell r="H55">
-            <v>2.086E-4</v>
-          </cell>
-          <cell r="I55">
-            <v>2.7551000000000002E-4</v>
-          </cell>
-          <cell r="J55" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>2.65</v>
-          </cell>
-          <cell r="B56">
-            <v>2.0380000000000001E-5</v>
-          </cell>
-          <cell r="C56">
-            <v>2.8254000000000001E-5</v>
-          </cell>
-          <cell r="D56">
-            <v>4.3903999999999998E-5</v>
-          </cell>
-          <cell r="E56">
-            <v>6.9454000000000003E-5</v>
-          </cell>
-          <cell r="F56">
-            <v>1.055E-4</v>
-          </cell>
-          <cell r="G56">
-            <v>1.5200000000000001E-4</v>
-          </cell>
-          <cell r="H56">
-            <v>2.0880000000000001E-4</v>
-          </cell>
-          <cell r="I56">
-            <v>2.7569999999999998E-4</v>
-          </cell>
-          <cell r="J56" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>2.7</v>
-          </cell>
-          <cell r="B57">
-            <v>2.0443999999999999E-5</v>
-          </cell>
-          <cell r="C57">
-            <v>2.8330000000000002E-5</v>
-          </cell>
-          <cell r="D57">
-            <v>4.3993999999999999E-5</v>
-          </cell>
-          <cell r="E57">
-            <v>6.9596000000000002E-5</v>
-          </cell>
-          <cell r="F57">
-            <v>1.0560000000000001E-4</v>
-          </cell>
-          <cell r="G57">
-            <v>1.5215000000000001E-4</v>
-          </cell>
-          <cell r="H57">
-            <v>2.0890000000000001E-4</v>
-          </cell>
-          <cell r="I57">
-            <v>2.7585000000000001E-4</v>
-          </cell>
-          <cell r="J57" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>2.75</v>
-          </cell>
-          <cell r="B58">
-            <v>2.0499000000000001E-5</v>
-          </cell>
-          <cell r="C58">
-            <v>2.8404000000000001E-5</v>
-          </cell>
-          <cell r="D58">
-            <v>4.4070000000000003E-5</v>
-          </cell>
-          <cell r="E58">
-            <v>6.9670000000000002E-5</v>
-          </cell>
-          <cell r="F58">
-            <v>1.0569999999999999E-4</v>
-          </cell>
-          <cell r="G58">
-            <v>1.5224999999999999E-4</v>
-          </cell>
-          <cell r="H58">
-            <v>2.0900000000000001E-4</v>
-          </cell>
-          <cell r="I58">
-            <v>2.7609999999999999E-4</v>
-          </cell>
-          <cell r="J58" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>2.8</v>
-          </cell>
-          <cell r="B59">
-            <v>2.056E-5</v>
-          </cell>
-          <cell r="C59">
-            <v>2.8464999999999999E-5</v>
-          </cell>
-          <cell r="D59">
-            <v>4.4144999999999998E-5</v>
-          </cell>
-          <cell r="E59">
-            <v>6.9763000000000003E-5</v>
-          </cell>
-          <cell r="F59">
-            <v>1.058E-4</v>
-          </cell>
-          <cell r="G59">
-            <v>1.5234999999999999E-4</v>
-          </cell>
-          <cell r="H59">
-            <v>2.0919999999999999E-4</v>
-          </cell>
-          <cell r="I59">
-            <v>2.7625000000000002E-4</v>
-          </cell>
-          <cell r="J59" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>2.85</v>
-          </cell>
-          <cell r="B60">
-            <v>2.0630000000000001E-5</v>
-          </cell>
-          <cell r="C60">
-            <v>2.8549999999999999E-5</v>
-          </cell>
-          <cell r="D60">
-            <v>4.4240000000000003E-5</v>
-          </cell>
-          <cell r="E60">
-            <v>6.9879E-5</v>
-          </cell>
-          <cell r="F60">
-            <v>1.0585E-4</v>
-          </cell>
-          <cell r="G60">
-            <v>1.5254999999999999E-4</v>
-          </cell>
-          <cell r="H60">
-            <v>2.0934999999999999E-4</v>
-          </cell>
-          <cell r="I60">
-            <v>2.7645000000000002E-4</v>
-          </cell>
-          <cell r="J60" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>2.9</v>
-          </cell>
-          <cell r="B61">
-            <v>2.0679999999999999E-5</v>
-          </cell>
-          <cell r="C61">
-            <v>2.8605000000000001E-5</v>
-          </cell>
-          <cell r="D61">
-            <v>4.4283999999999998E-5</v>
-          </cell>
-          <cell r="E61">
-            <v>6.9924000000000003E-5</v>
-          </cell>
-          <cell r="F61">
-            <v>1.0605E-4</v>
-          </cell>
-          <cell r="G61">
-            <v>1.526E-4</v>
-          </cell>
-          <cell r="H61">
-            <v>2.0955E-4</v>
-          </cell>
-          <cell r="I61">
-            <v>2.766E-4</v>
-          </cell>
-          <cell r="J61" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>2.95</v>
-          </cell>
-          <cell r="B62">
-            <v>2.075E-5</v>
-          </cell>
-          <cell r="C62">
-            <v>2.8674E-5</v>
-          </cell>
-          <cell r="D62">
-            <v>4.4379000000000003E-5</v>
-          </cell>
-          <cell r="E62">
-            <v>7.0038999999999998E-5</v>
-          </cell>
-          <cell r="F62">
-            <v>1.061E-4</v>
-          </cell>
-          <cell r="G62">
-            <v>1.5275E-4</v>
-          </cell>
-          <cell r="H62">
-            <v>2.0965E-4</v>
-          </cell>
-          <cell r="I62">
-            <v>2.7680000000000001E-4</v>
-          </cell>
-          <cell r="J62" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>3</v>
-          </cell>
-          <cell r="B63">
-            <v>2.0805000000000002E-5</v>
-          </cell>
-          <cell r="C63">
-            <v>2.8744000000000001E-5</v>
-          </cell>
-          <cell r="D63">
-            <v>4.4444999999999999E-5</v>
-          </cell>
-          <cell r="E63">
-            <v>7.0110000000000005E-5</v>
-          </cell>
-          <cell r="F63">
-            <v>1.0620000000000001E-4</v>
-          </cell>
-          <cell r="G63">
-            <v>1.5285E-4</v>
-          </cell>
-          <cell r="H63">
-            <v>2.0975E-4</v>
-          </cell>
-          <cell r="I63">
-            <v>2.7694999999999998E-4</v>
-          </cell>
-          <cell r="J63" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>3.05</v>
-          </cell>
-          <cell r="B64">
-            <v>2.0869999999999998E-5</v>
-          </cell>
-          <cell r="C64">
-            <v>2.8799E-5</v>
-          </cell>
-          <cell r="D64">
-            <v>4.4515000000000003E-5</v>
-          </cell>
-          <cell r="E64">
-            <v>7.0196000000000004E-5</v>
-          </cell>
-          <cell r="F64">
-            <v>1.0624999999999999E-4</v>
-          </cell>
-          <cell r="G64">
-            <v>1.5295E-4</v>
-          </cell>
-          <cell r="H64">
-            <v>2.0995000000000001E-4</v>
-          </cell>
-          <cell r="I64">
-            <v>2.7721000000000001E-4</v>
-          </cell>
-          <cell r="J64" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>3.1</v>
-          </cell>
-          <cell r="B65">
-            <v>2.0925E-5</v>
-          </cell>
-          <cell r="C65">
-            <v>2.8878999999999999E-5</v>
-          </cell>
-          <cell r="D65">
-            <v>4.4598999999999998E-5</v>
-          </cell>
-          <cell r="E65">
-            <v>7.0270000000000003E-5</v>
-          </cell>
-          <cell r="F65">
-            <v>1.064E-4</v>
-          </cell>
-          <cell r="G65">
-            <v>1.5310000000000001E-4</v>
-          </cell>
-          <cell r="H65">
-            <v>2.1010000000000001E-4</v>
-          </cell>
-          <cell r="I65">
-            <v>2.7724999999999999E-4</v>
-          </cell>
-          <cell r="J65" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>3.15</v>
-          </cell>
-          <cell r="B66">
-            <v>2.0985E-5</v>
-          </cell>
-          <cell r="C66">
-            <v>2.8940000000000001E-5</v>
-          </cell>
-          <cell r="D66">
-            <v>4.4659000000000001E-5</v>
-          </cell>
-          <cell r="E66">
-            <v>7.0340999999999996E-5</v>
-          </cell>
-          <cell r="F66">
-            <v>1.0645E-4</v>
-          </cell>
-          <cell r="G66">
-            <v>1.5320000000000001E-4</v>
-          </cell>
-          <cell r="H66">
-            <v>2.1019999999999999E-4</v>
-          </cell>
-          <cell r="I66">
-            <v>2.7744E-4</v>
-          </cell>
-          <cell r="J66" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>3.2</v>
-          </cell>
-          <cell r="B67">
-            <v>2.1044999999999999E-5</v>
-          </cell>
-          <cell r="C67">
-            <v>2.9E-5</v>
-          </cell>
-          <cell r="D67">
-            <v>4.4734999999999998E-5</v>
-          </cell>
-          <cell r="E67">
-            <v>7.0438000000000006E-5</v>
-          </cell>
-          <cell r="F67">
-            <v>1.066E-4</v>
-          </cell>
-          <cell r="G67">
-            <v>1.5330000000000001E-4</v>
-          </cell>
-          <cell r="H67">
-            <v>2.1029999999999999E-4</v>
-          </cell>
-          <cell r="I67">
-            <v>2.7761000000000002E-4</v>
-          </cell>
-          <cell r="J67" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>3.25</v>
-          </cell>
-          <cell r="B68">
-            <v>2.1094000000000002E-5</v>
-          </cell>
-          <cell r="C68">
-            <v>2.9054E-5</v>
-          </cell>
-          <cell r="D68">
-            <v>4.481E-5</v>
-          </cell>
-          <cell r="E68">
-            <v>7.0494000000000006E-5</v>
-          </cell>
-          <cell r="F68">
-            <v>1.0665E-4</v>
-          </cell>
-          <cell r="G68">
-            <v>1.5339999999999999E-4</v>
-          </cell>
-          <cell r="H68">
-            <v>2.1039999999999999E-4</v>
-          </cell>
-          <cell r="I68">
-            <v>2.7779999999999998E-4</v>
-          </cell>
-          <cell r="J68" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>3.3</v>
-          </cell>
-          <cell r="B69">
-            <v>2.1155E-5</v>
-          </cell>
-          <cell r="C69">
-            <v>2.9119999999999999E-5</v>
-          </cell>
-          <cell r="D69">
-            <v>4.4875E-5</v>
-          </cell>
-          <cell r="E69">
-            <v>7.0598000000000004E-5</v>
-          </cell>
-          <cell r="F69">
-            <v>1.0679999999999999E-4</v>
-          </cell>
-          <cell r="G69">
-            <v>1.5349999999999999E-4</v>
-          </cell>
-          <cell r="H69">
-            <v>2.106E-4</v>
-          </cell>
-          <cell r="I69">
-            <v>2.7790999999999997E-4</v>
-          </cell>
-          <cell r="J69" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>3.35</v>
-          </cell>
-          <cell r="B70">
-            <v>2.1214999999999999E-5</v>
-          </cell>
-          <cell r="C70">
-            <v>2.9195000000000001E-5</v>
-          </cell>
-          <cell r="D70">
-            <v>4.4969999999999998E-5</v>
-          </cell>
-          <cell r="E70">
-            <v>7.0705999999999997E-5</v>
-          </cell>
-          <cell r="F70">
-            <v>1.069E-4</v>
-          </cell>
-          <cell r="G70">
-            <v>1.5364999999999999E-4</v>
-          </cell>
-          <cell r="H70">
-            <v>2.107E-4</v>
-          </cell>
-          <cell r="I70">
-            <v>2.7809999999999998E-4</v>
-          </cell>
-          <cell r="J70" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>3.4</v>
-          </cell>
-          <cell r="B71">
-            <v>2.126E-5</v>
-          </cell>
-          <cell r="C71">
-            <v>2.9240000000000001E-5</v>
-          </cell>
-          <cell r="D71">
-            <v>4.5009000000000002E-5</v>
-          </cell>
-          <cell r="E71">
-            <v>7.0751000000000001E-5</v>
-          </cell>
-          <cell r="F71">
-            <v>1.07E-4</v>
-          </cell>
-          <cell r="G71">
-            <v>1.5375E-4</v>
-          </cell>
-          <cell r="H71">
-            <v>2.1085E-4</v>
-          </cell>
-          <cell r="I71">
-            <v>2.7819999999999999E-4</v>
-          </cell>
-          <cell r="J71" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>3.45</v>
-          </cell>
-          <cell r="B72">
-            <v>2.1319999999999999E-5</v>
-          </cell>
-          <cell r="C72">
-            <v>2.9305000000000001E-5</v>
-          </cell>
-          <cell r="D72">
-            <v>4.5089000000000001E-5</v>
-          </cell>
-          <cell r="E72">
-            <v>7.0854999999999998E-5</v>
-          </cell>
-          <cell r="F72">
-            <v>1.071E-4</v>
-          </cell>
-          <cell r="G72">
-            <v>1.5385E-4</v>
-          </cell>
-          <cell r="H72">
-            <v>2.1105000000000001E-4</v>
-          </cell>
-          <cell r="I72">
-            <v>2.7846000000000001E-4</v>
-          </cell>
-          <cell r="J72" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>3.5</v>
-          </cell>
-          <cell r="B73">
-            <v>2.137E-5</v>
-          </cell>
-          <cell r="C73">
-            <v>2.9369E-5</v>
-          </cell>
-          <cell r="D73">
-            <v>4.5145000000000002E-5</v>
-          </cell>
-          <cell r="E73">
-            <v>7.0926000000000005E-5</v>
-          </cell>
-          <cell r="F73">
-            <v>1.0715E-4</v>
-          </cell>
-          <cell r="G73">
-            <v>1.54E-4</v>
-          </cell>
-          <cell r="H73">
-            <v>2.1110000000000001E-4</v>
-          </cell>
-          <cell r="I73">
-            <v>2.7860999999999999E-4</v>
-          </cell>
-          <cell r="J73" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>3.55</v>
-          </cell>
-          <cell r="B74">
-            <v>2.143E-5</v>
-          </cell>
-          <cell r="C74">
-            <v>2.942E-5</v>
-          </cell>
-          <cell r="D74">
-            <v>4.5219000000000002E-5</v>
-          </cell>
-          <cell r="E74">
-            <v>7.1004E-5</v>
-          </cell>
-          <cell r="F74">
-            <v>1.0725E-4</v>
-          </cell>
-          <cell r="G74">
-            <v>1.5405E-4</v>
-          </cell>
-          <cell r="H74">
-            <v>2.1120000000000001E-4</v>
-          </cell>
-          <cell r="I74">
-            <v>2.787E-4</v>
-          </cell>
-          <cell r="J74" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>3.6</v>
-          </cell>
-          <cell r="B75">
-            <v>2.1489E-5</v>
-          </cell>
-          <cell r="C75">
-            <v>2.9495000000000001E-5</v>
-          </cell>
-          <cell r="D75">
-            <v>4.5299000000000001E-5</v>
-          </cell>
-          <cell r="E75">
-            <v>7.1077999999999999E-5</v>
-          </cell>
-          <cell r="F75">
-            <v>1.0734999999999999E-4</v>
-          </cell>
-          <cell r="G75">
-            <v>1.5420000000000001E-4</v>
-          </cell>
-          <cell r="H75">
-            <v>2.1134999999999999E-4</v>
-          </cell>
-          <cell r="I75">
-            <v>2.789E-4</v>
-          </cell>
-          <cell r="J75" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>3.65</v>
-          </cell>
-          <cell r="B76">
-            <v>2.1529E-5</v>
-          </cell>
-          <cell r="C76">
-            <v>2.955E-5</v>
-          </cell>
-          <cell r="D76">
-            <v>4.5355000000000002E-5</v>
-          </cell>
-          <cell r="E76">
-            <v>7.1134E-5</v>
-          </cell>
-          <cell r="F76">
-            <v>1.0745E-4</v>
-          </cell>
-          <cell r="G76">
-            <v>1.5430000000000001E-4</v>
-          </cell>
-          <cell r="H76">
-            <v>2.1149999999999999E-4</v>
-          </cell>
-          <cell r="I76">
-            <v>2.7904999999999998E-4</v>
-          </cell>
-          <cell r="J76" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>3.7</v>
-          </cell>
-          <cell r="B77">
-            <v>2.1590000000000002E-5</v>
-          </cell>
-          <cell r="C77">
-            <v>2.9609999999999999E-5</v>
-          </cell>
-          <cell r="D77">
-            <v>4.5419E-5</v>
-          </cell>
-          <cell r="E77">
-            <v>7.1242000000000007E-5</v>
-          </cell>
-          <cell r="F77">
-            <v>1.075E-4</v>
-          </cell>
-          <cell r="G77">
-            <v>1.5440000000000001E-4</v>
-          </cell>
-          <cell r="H77">
-            <v>2.1164999999999999E-4</v>
-          </cell>
-          <cell r="I77">
-            <v>2.7915999999999998E-4</v>
-          </cell>
-          <cell r="J77" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>3.75</v>
-          </cell>
-          <cell r="B78">
-            <v>2.1645E-5</v>
-          </cell>
-          <cell r="C78">
-            <v>2.9675E-5</v>
-          </cell>
-          <cell r="D78">
-            <v>4.549E-5</v>
-          </cell>
-          <cell r="E78">
-            <v>7.1305999999999998E-5</v>
-          </cell>
-          <cell r="F78">
-            <v>1.0765E-4</v>
-          </cell>
-          <cell r="G78">
-            <v>1.5454999999999999E-4</v>
-          </cell>
-          <cell r="H78">
-            <v>2.1175E-4</v>
-          </cell>
-          <cell r="I78">
-            <v>2.7934999999999999E-4</v>
-          </cell>
-          <cell r="J78" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>3.8</v>
-          </cell>
-          <cell r="B79">
-            <v>2.1695000000000002E-5</v>
-          </cell>
-          <cell r="C79">
-            <v>2.9719000000000001E-5</v>
-          </cell>
-          <cell r="D79">
-            <v>4.5555E-5</v>
-          </cell>
-          <cell r="E79">
-            <v>7.1369000000000001E-5</v>
-          </cell>
-          <cell r="F79">
-            <v>1.077E-4</v>
-          </cell>
-          <cell r="G79">
-            <v>1.5459999999999999E-4</v>
-          </cell>
-          <cell r="H79">
-            <v>2.1195E-4</v>
-          </cell>
-          <cell r="I79">
-            <v>2.7945999999999998E-4</v>
-          </cell>
-          <cell r="J79" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>3.85</v>
-          </cell>
-          <cell r="B80">
-            <v>2.1759E-5</v>
-          </cell>
-          <cell r="C80">
-            <v>2.9785E-5</v>
-          </cell>
-          <cell r="D80">
-            <v>4.5634999999999999E-5</v>
-          </cell>
-          <cell r="E80">
-            <v>7.1481000000000002E-5</v>
-          </cell>
-          <cell r="F80">
-            <v>1.078E-4</v>
-          </cell>
-          <cell r="G80">
-            <v>1.548E-4</v>
-          </cell>
-          <cell r="H80">
-            <v>2.12E-4</v>
-          </cell>
-          <cell r="I80">
-            <v>2.7964999999999999E-4</v>
-          </cell>
-          <cell r="J80" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>3.9</v>
-          </cell>
-          <cell r="B81">
-            <v>2.1804999999999999E-5</v>
-          </cell>
-          <cell r="C81">
-            <v>2.9839999999999999E-5</v>
-          </cell>
-          <cell r="D81">
-            <v>4.5680000000000003E-5</v>
-          </cell>
-          <cell r="E81">
-            <v>7.1518000000000002E-5</v>
-          </cell>
-          <cell r="F81">
-            <v>1.0789999999999999E-4</v>
-          </cell>
-          <cell r="G81">
-            <v>1.5485E-4</v>
-          </cell>
-          <cell r="H81">
-            <v>2.1210000000000001E-4</v>
-          </cell>
-          <cell r="I81">
-            <v>2.7980000000000002E-4</v>
-          </cell>
-          <cell r="J81" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>3.95</v>
-          </cell>
-          <cell r="B82">
-            <v>2.1865000000000002E-5</v>
-          </cell>
-          <cell r="C82">
-            <v>2.9899999999999998E-5</v>
-          </cell>
-          <cell r="D82">
-            <v>4.5754000000000003E-5</v>
-          </cell>
-          <cell r="E82">
-            <v>7.1619000000000007E-5</v>
-          </cell>
-          <cell r="F82">
-            <v>1.08E-4</v>
-          </cell>
-          <cell r="G82">
-            <v>1.5495E-4</v>
-          </cell>
-          <cell r="H82">
-            <v>2.1230000000000001E-4</v>
-          </cell>
-          <cell r="I82">
-            <v>2.7995E-4</v>
-          </cell>
-          <cell r="J82" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>4</v>
-          </cell>
-          <cell r="B83">
-            <v>2.1905000000000001E-5</v>
-          </cell>
-          <cell r="C83">
-            <v>2.9955E-5</v>
-          </cell>
-          <cell r="D83">
-            <v>4.5825000000000003E-5</v>
-          </cell>
-          <cell r="E83">
-            <v>7.1693000000000006E-5</v>
-          </cell>
-          <cell r="F83">
-            <v>1.0805E-4</v>
-          </cell>
-          <cell r="G83">
-            <v>1.5505E-4</v>
-          </cell>
-          <cell r="H83">
-            <v>2.1240000000000001E-4</v>
-          </cell>
-          <cell r="I83">
-            <v>2.8016E-4</v>
-          </cell>
-          <cell r="J83" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>4.05</v>
-          </cell>
-          <cell r="B84">
-            <v>2.1963999999999998E-5</v>
-          </cell>
-          <cell r="C84">
-            <v>3.0009999999999999E-5</v>
-          </cell>
-          <cell r="D84">
-            <v>4.5868999999999997E-5</v>
-          </cell>
-          <cell r="E84">
-            <v>7.1774999999999996E-5</v>
-          </cell>
-          <cell r="F84">
-            <v>1.081E-4</v>
-          </cell>
-          <cell r="G84">
-            <v>1.5515E-4</v>
-          </cell>
-          <cell r="H84">
-            <v>2.1249999999999999E-4</v>
-          </cell>
-          <cell r="I84">
-            <v>2.8019999999999998E-4</v>
-          </cell>
-          <cell r="J84" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>4.0999999999999996</v>
-          </cell>
-          <cell r="B85">
-            <v>2.2014999999999998E-5</v>
-          </cell>
-          <cell r="C85">
-            <v>3.008E-5</v>
-          </cell>
-          <cell r="D85">
-            <v>4.5955000000000003E-5</v>
-          </cell>
-          <cell r="E85">
-            <v>7.1837999999999999E-5</v>
-          </cell>
-          <cell r="F85">
-            <v>1.082E-4</v>
-          </cell>
-          <cell r="G85">
-            <v>1.5525000000000001E-4</v>
-          </cell>
-          <cell r="H85">
-            <v>2.1259999999999999E-4</v>
-          </cell>
-          <cell r="I85">
-            <v>2.8045000000000001E-4</v>
-          </cell>
-          <cell r="J85" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>4.1500000000000004</v>
-          </cell>
-          <cell r="B86">
-            <v>2.207E-5</v>
-          </cell>
-          <cell r="C86">
-            <v>3.0125E-5</v>
-          </cell>
-          <cell r="D86">
-            <v>4.6E-5</v>
-          </cell>
-          <cell r="E86">
-            <v>7.1904999999999997E-5</v>
-          </cell>
-          <cell r="F86">
-            <v>1.0840000000000001E-4</v>
-          </cell>
-          <cell r="G86">
-            <v>1.5540000000000001E-4</v>
-          </cell>
-          <cell r="H86">
-            <v>2.1269999999999999E-4</v>
-          </cell>
-          <cell r="I86">
-            <v>2.8049999999999999E-4</v>
-          </cell>
-          <cell r="J86" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>4.2</v>
-          </cell>
-          <cell r="B87">
-            <v>2.2124E-5</v>
-          </cell>
-          <cell r="C87">
-            <v>3.0179999999999999E-5</v>
-          </cell>
-          <cell r="D87">
-            <v>4.6084000000000001E-5</v>
-          </cell>
-          <cell r="E87">
-            <v>7.1995000000000004E-5</v>
-          </cell>
-          <cell r="F87">
-            <v>1.0840000000000001E-4</v>
-          </cell>
-          <cell r="G87">
-            <v>1.5545000000000001E-4</v>
-          </cell>
-          <cell r="H87">
-            <v>2.129E-4</v>
-          </cell>
-          <cell r="I87">
-            <v>2.8059999999999999E-4</v>
-          </cell>
-          <cell r="J87" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>4.25</v>
-          </cell>
-          <cell r="B88">
-            <v>2.2169999999999999E-5</v>
-          </cell>
-          <cell r="C88">
-            <v>3.0244999999999999E-5</v>
-          </cell>
-          <cell r="D88">
-            <v>4.613E-5</v>
-          </cell>
-          <cell r="E88">
-            <v>7.2069000000000004E-5</v>
-          </cell>
-          <cell r="F88">
-            <v>1.0849999999999999E-4</v>
-          </cell>
-          <cell r="G88">
-            <v>1.5559999999999999E-4</v>
-          </cell>
-          <cell r="H88">
-            <v>2.129E-4</v>
-          </cell>
-          <cell r="I88">
-            <v>2.8086000000000002E-4</v>
-          </cell>
-          <cell r="J88" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>4.3</v>
-          </cell>
-          <cell r="B89">
-            <v>2.2225000000000002E-5</v>
-          </cell>
-          <cell r="C89">
-            <v>3.0284999999999999E-5</v>
-          </cell>
-          <cell r="D89">
-            <v>4.6199000000000003E-5</v>
-          </cell>
-          <cell r="E89">
-            <v>7.2129E-5</v>
-          </cell>
-          <cell r="F89">
-            <v>1.086E-4</v>
-          </cell>
-          <cell r="G89">
-            <v>1.5564999999999999E-4</v>
-          </cell>
-          <cell r="H89">
-            <v>2.131E-4</v>
-          </cell>
-          <cell r="I89">
-            <v>2.809E-4</v>
-          </cell>
-          <cell r="J89" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>4.3499999999999996</v>
-          </cell>
-          <cell r="B90">
-            <v>2.228E-5</v>
-          </cell>
-          <cell r="C90">
-            <v>3.0358999999999999E-5</v>
-          </cell>
-          <cell r="D90">
-            <v>4.6279000000000002E-5</v>
-          </cell>
-          <cell r="E90">
-            <v>7.2232999999999998E-5</v>
-          </cell>
-          <cell r="F90">
-            <v>1.0865E-4</v>
-          </cell>
-          <cell r="G90">
-            <v>1.5579999999999999E-4</v>
-          </cell>
-          <cell r="H90">
-            <v>2.1325000000000001E-4</v>
-          </cell>
-          <cell r="I90">
-            <v>2.8104999999999997E-4</v>
-          </cell>
-          <cell r="J90" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="B91">
-            <v>2.2325000000000001E-5</v>
-          </cell>
-          <cell r="C91">
-            <v>3.0405000000000001E-5</v>
-          </cell>
-          <cell r="D91">
-            <v>4.6323999999999999E-5</v>
-          </cell>
-          <cell r="E91">
-            <v>7.2271E-5</v>
-          </cell>
-          <cell r="F91">
-            <v>1.088E-4</v>
-          </cell>
-          <cell r="G91">
-            <v>1.5589999999999999E-4</v>
-          </cell>
-          <cell r="H91">
-            <v>2.1330000000000001E-4</v>
-          </cell>
-          <cell r="I91">
-            <v>2.812E-4</v>
-          </cell>
-          <cell r="J91" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>4.45</v>
-          </cell>
-          <cell r="B92">
-            <v>2.2379999999999999E-5</v>
-          </cell>
-          <cell r="C92">
-            <v>3.0474999999999999E-5</v>
-          </cell>
-          <cell r="D92">
-            <v>4.6388999999999999E-5</v>
-          </cell>
-          <cell r="E92">
-            <v>7.2374999999999997E-5</v>
-          </cell>
-          <cell r="F92">
-            <v>1.0885E-4</v>
-          </cell>
-          <cell r="G92">
-            <v>1.56E-4</v>
-          </cell>
-          <cell r="H92">
-            <v>2.1350000000000001E-4</v>
-          </cell>
-          <cell r="I92">
-            <v>2.8134999999999998E-4</v>
-          </cell>
-          <cell r="J92" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>4.5</v>
-          </cell>
-          <cell r="B93">
-            <v>2.243E-5</v>
-          </cell>
-          <cell r="C93">
-            <v>3.0528999999999999E-5</v>
-          </cell>
-          <cell r="D93">
-            <v>4.6464000000000001E-5</v>
-          </cell>
-          <cell r="E93">
-            <v>7.2422999999999994E-5</v>
-          </cell>
-          <cell r="F93">
-            <v>1.0895000000000001E-4</v>
-          </cell>
-          <cell r="G93">
-            <v>1.561E-4</v>
-          </cell>
-          <cell r="H93">
-            <v>2.1354999999999999E-4</v>
-          </cell>
-          <cell r="I93">
-            <v>2.8150000000000001E-4</v>
-          </cell>
-          <cell r="J93" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>4.55</v>
-          </cell>
-          <cell r="B94">
-            <v>2.2484999999999999E-5</v>
-          </cell>
-          <cell r="C94">
-            <v>3.0574999999999998E-5</v>
-          </cell>
-          <cell r="D94">
-            <v>4.6505000000000003E-5</v>
-          </cell>
-          <cell r="E94">
-            <v>7.2504999999999998E-5</v>
-          </cell>
-          <cell r="F94">
-            <v>1.0900000000000001E-4</v>
-          </cell>
-          <cell r="G94">
-            <v>1.5615E-4</v>
-          </cell>
-          <cell r="H94">
-            <v>2.1379999999999999E-4</v>
-          </cell>
-          <cell r="I94">
-            <v>2.8164999999999999E-4</v>
-          </cell>
-          <cell r="J94" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>4.5999999999999996</v>
-          </cell>
-          <cell r="B95">
-            <v>2.2540000000000001E-5</v>
-          </cell>
-          <cell r="C95">
-            <v>3.0644E-5</v>
-          </cell>
-          <cell r="D95">
-            <v>4.6604999999999998E-5</v>
-          </cell>
-          <cell r="E95">
-            <v>7.2590999999999997E-5</v>
-          </cell>
-          <cell r="F95">
-            <v>1.091E-4</v>
-          </cell>
-          <cell r="G95">
-            <v>1.563E-4</v>
-          </cell>
-          <cell r="H95">
-            <v>2.1379999999999999E-4</v>
-          </cell>
-          <cell r="I95">
-            <v>2.8185999999999999E-4</v>
-          </cell>
-          <cell r="J95" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>4.6500000000000004</v>
-          </cell>
-          <cell r="B96">
-            <v>2.2589999999999999E-5</v>
-          </cell>
-          <cell r="C96">
-            <v>3.0694999999999997E-5</v>
-          </cell>
-          <cell r="D96">
-            <v>4.6650000000000002E-5</v>
-          </cell>
-          <cell r="E96">
-            <v>7.2627999999999996E-5</v>
-          </cell>
-          <cell r="F96">
-            <v>1.0915E-4</v>
-          </cell>
-          <cell r="G96">
-            <v>1.5640000000000001E-4</v>
-          </cell>
-          <cell r="H96">
-            <v>2.1395E-4</v>
-          </cell>
-          <cell r="I96">
-            <v>2.8190000000000002E-4</v>
-          </cell>
-          <cell r="J96" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>4.7</v>
-          </cell>
-          <cell r="B97">
-            <v>2.2645000000000001E-5</v>
-          </cell>
-          <cell r="C97">
-            <v>3.0753999999999997E-5</v>
-          </cell>
-          <cell r="D97">
-            <v>4.6724000000000002E-5</v>
-          </cell>
-          <cell r="E97">
-            <v>7.2732999999999996E-5</v>
-          </cell>
-          <cell r="F97">
-            <v>1.0925E-4</v>
-          </cell>
-          <cell r="G97">
-            <v>1.5650000000000001E-4</v>
-          </cell>
-          <cell r="H97">
-            <v>2.1415E-4</v>
-          </cell>
-          <cell r="I97">
-            <v>2.8211000000000002E-4</v>
-          </cell>
-          <cell r="J97" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>4.75</v>
-          </cell>
-          <cell r="B98">
-            <v>2.27E-5</v>
-          </cell>
-          <cell r="C98">
-            <v>3.0815999999999998E-5</v>
-          </cell>
-          <cell r="D98">
-            <v>4.6774999999999999E-5</v>
-          </cell>
-          <cell r="E98">
-            <v>7.2795999999999999E-5</v>
-          </cell>
-          <cell r="F98">
-            <v>1.094E-4</v>
-          </cell>
-          <cell r="G98">
-            <v>1.5660000000000001E-4</v>
-          </cell>
-          <cell r="H98">
-            <v>2.1415E-4</v>
-          </cell>
-          <cell r="I98">
-            <v>2.8219999999999997E-4</v>
-          </cell>
-          <cell r="J98" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>4.8</v>
-          </cell>
-          <cell r="B99">
-            <v>2.2755000000000002E-5</v>
-          </cell>
-          <cell r="C99">
-            <v>3.0879E-5</v>
-          </cell>
-          <cell r="D99">
-            <v>4.6825E-5</v>
-          </cell>
-          <cell r="E99">
-            <v>7.2848000000000005E-5</v>
-          </cell>
-          <cell r="F99">
-            <v>1.0945E-4</v>
-          </cell>
-          <cell r="G99">
-            <v>1.5665000000000001E-4</v>
-          </cell>
-          <cell r="H99">
-            <v>2.1425E-4</v>
-          </cell>
-          <cell r="I99">
-            <v>2.8235000000000001E-4</v>
-          </cell>
-          <cell r="J99" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>4.8499999999999996</v>
-          </cell>
-          <cell r="B100">
-            <v>2.2804000000000001E-5</v>
-          </cell>
-          <cell r="C100">
-            <v>3.0935000000000001E-5</v>
-          </cell>
-          <cell r="D100">
-            <v>4.6919999999999998E-5</v>
-          </cell>
-          <cell r="E100">
-            <v>7.2934000000000003E-5</v>
-          </cell>
-          <cell r="F100">
-            <v>1.0950000000000001E-4</v>
-          </cell>
-          <cell r="G100">
-            <v>1.5684999999999999E-4</v>
-          </cell>
-          <cell r="H100">
-            <v>2.1440000000000001E-4</v>
-          </cell>
-          <cell r="I100">
-            <v>2.8249999999999998E-4</v>
-          </cell>
-          <cell r="J100" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>4.9000000000000004</v>
-          </cell>
-          <cell r="B101">
-            <v>2.2864999999999999E-5</v>
-          </cell>
-          <cell r="C101">
-            <v>3.0988999999999998E-5</v>
-          </cell>
-          <cell r="D101">
-            <v>4.6969999999999999E-5</v>
-          </cell>
-          <cell r="E101">
-            <v>7.3001000000000001E-5</v>
-          </cell>
-          <cell r="F101">
-            <v>1.0959999999999999E-4</v>
-          </cell>
-          <cell r="G101">
-            <v>1.5684999999999999E-4</v>
-          </cell>
-          <cell r="H101">
-            <v>2.1450000000000001E-4</v>
-          </cell>
-          <cell r="I101">
-            <v>2.8259999999999998E-4</v>
-          </cell>
-          <cell r="J101" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>4.95</v>
-          </cell>
-          <cell r="B102">
-            <v>2.2925000000000002E-5</v>
-          </cell>
-          <cell r="C102">
-            <v>3.1050000000000003E-5</v>
-          </cell>
-          <cell r="D102">
-            <v>4.7054E-5</v>
-          </cell>
-          <cell r="E102">
-            <v>7.3083000000000005E-5</v>
-          </cell>
-          <cell r="F102">
-            <v>1.0965E-4</v>
-          </cell>
-          <cell r="G102">
-            <v>1.5699999999999999E-4</v>
-          </cell>
-          <cell r="H102">
-            <v>2.1465000000000001E-4</v>
-          </cell>
-          <cell r="I102">
-            <v>2.8280999999999998E-4</v>
-          </cell>
-          <cell r="J102" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>5</v>
-          </cell>
-          <cell r="B103">
-            <v>2.2979000000000001E-5</v>
-          </cell>
-          <cell r="C103">
-            <v>3.1115000000000003E-5</v>
-          </cell>
-          <cell r="D103">
-            <v>4.7114000000000003E-5</v>
-          </cell>
-          <cell r="E103">
-            <v>7.3164999999999995E-5</v>
-          </cell>
-          <cell r="F103">
-            <v>1.098E-4</v>
-          </cell>
-          <cell r="G103">
-            <v>1.5705E-4</v>
-          </cell>
-          <cell r="H103">
-            <v>2.1474999999999999E-4</v>
-          </cell>
-          <cell r="I103">
-            <v>2.8305000000000002E-4</v>
-          </cell>
-          <cell r="J103" t="str">
-            <v/>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="STEP15_MOSFET_ID_VD_400um_x_20u"/>
-      <sheetName val="400x20"/>
-      <sheetName val="STEP15_MOSFET_ID_VD_400um_x_15u"/>
-      <sheetName val="400x10"/>
-      <sheetName val="400x5u"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>ID</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>ID2</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>ID3</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>ID4</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>ID5</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>ID6</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>ID7</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>ID8</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>0</v>
-          </cell>
-          <cell r="B2">
-            <v>-7.6799999999999999E-7</v>
-          </cell>
-          <cell r="C2">
-            <v>-4.6600000000000002E-7</v>
-          </cell>
-          <cell r="D2">
-            <v>-2.2600000000000001E-7</v>
-          </cell>
-          <cell r="E2">
-            <v>-5.4599999999999999E-8</v>
-          </cell>
-          <cell r="F2">
-            <v>6.87E-8</v>
-          </cell>
-          <cell r="G2">
-            <v>1.03E-7</v>
-          </cell>
-          <cell r="H2">
-            <v>1.5699999999999999E-7</v>
-          </cell>
-          <cell r="I2">
-            <v>1.1799999999999999E-6</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>0.05</v>
-          </cell>
-          <cell r="B3">
-            <v>1.4800000000000001E-5</v>
-          </cell>
-          <cell r="C3">
-            <v>4.5800000000000002E-5</v>
-          </cell>
-          <cell r="D3">
-            <v>9.2600000000000001E-5</v>
-          </cell>
-          <cell r="E3">
-            <v>1.45E-4</v>
-          </cell>
-          <cell r="F3">
-            <v>1.9900000000000001E-4</v>
-          </cell>
-          <cell r="G3">
-            <v>2.52E-4</v>
-          </cell>
-          <cell r="H3">
-            <v>3.0499999999999999E-4</v>
-          </cell>
-          <cell r="I3">
-            <v>3.5599999999999998E-4</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>0.1</v>
-          </cell>
-          <cell r="B4">
-            <v>2.34E-5</v>
-          </cell>
-          <cell r="C4">
-            <v>7.2799999999999994E-5</v>
-          </cell>
-          <cell r="D4">
-            <v>1.5899999999999999E-4</v>
-          </cell>
-          <cell r="E4">
-            <v>2.6200000000000003E-4</v>
-          </cell>
-          <cell r="F4">
-            <v>3.6900000000000002E-4</v>
-          </cell>
-          <cell r="G4">
-            <v>4.7600000000000002E-4</v>
-          </cell>
-          <cell r="H4">
-            <v>5.8E-4</v>
-          </cell>
-          <cell r="I4">
-            <v>6.8300000000000001E-4</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>0.15</v>
-          </cell>
-          <cell r="B5">
-            <v>2.8799999999999999E-5</v>
-          </cell>
-          <cell r="C5">
-            <v>8.7100000000000003E-5</v>
-          </cell>
-          <cell r="D5">
-            <v>2.02E-4</v>
-          </cell>
-          <cell r="E5">
-            <v>3.5199999999999999E-4</v>
-          </cell>
-          <cell r="F5">
-            <v>5.1099999999999995E-4</v>
-          </cell>
-          <cell r="G5">
-            <v>6.7199999999999996E-4</v>
-          </cell>
-          <cell r="H5">
-            <v>8.2899999999999998E-4</v>
-          </cell>
-          <cell r="I5">
-            <v>9.8400000000000007E-4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>0.2</v>
-          </cell>
-          <cell r="B6">
-            <v>3.26E-5</v>
-          </cell>
-          <cell r="C6">
-            <v>9.4599999999999996E-5</v>
-          </cell>
-          <cell r="D6">
-            <v>2.2599999999999999E-4</v>
-          </cell>
-          <cell r="E6">
-            <v>4.1399999999999998E-4</v>
-          </cell>
-          <cell r="F6">
-            <v>6.2299999999999996E-4</v>
-          </cell>
-          <cell r="G6">
-            <v>8.3900000000000001E-4</v>
-          </cell>
-          <cell r="H6">
-            <v>1.0499999999999999E-3</v>
-          </cell>
-          <cell r="I6">
-            <v>1.2600000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>0.25</v>
-          </cell>
-          <cell r="B7">
-            <v>3.57E-5</v>
-          </cell>
-          <cell r="C7">
-            <v>9.9300000000000001E-5</v>
-          </cell>
-          <cell r="D7">
-            <v>2.3900000000000001E-4</v>
-          </cell>
-          <cell r="E7">
-            <v>4.5399999999999998E-4</v>
-          </cell>
-          <cell r="F7">
-            <v>7.0899999999999999E-4</v>
-          </cell>
-          <cell r="G7">
-            <v>9.77E-4</v>
-          </cell>
-          <cell r="H7">
-            <v>1.24E-3</v>
-          </cell>
-          <cell r="I7">
-            <v>1.5E-3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>0.3</v>
-          </cell>
-          <cell r="B8">
-            <v>3.82E-5</v>
-          </cell>
-          <cell r="C8">
-            <v>1.03E-4</v>
-          </cell>
-          <cell r="D8">
-            <v>2.4600000000000002E-4</v>
-          </cell>
-          <cell r="E8">
-            <v>4.7699999999999999E-4</v>
-          </cell>
-          <cell r="F8">
-            <v>7.6999999999999996E-4</v>
-          </cell>
-          <cell r="G8">
-            <v>1.09E-3</v>
-          </cell>
-          <cell r="H8">
-            <v>1.4E-3</v>
-          </cell>
-          <cell r="I8">
-            <v>1.72E-3</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>0.35</v>
-          </cell>
-          <cell r="B9">
-            <v>4.0399999999999999E-5</v>
-          </cell>
-          <cell r="C9">
-            <v>1.06E-4</v>
-          </cell>
-          <cell r="D9">
-            <v>2.5099999999999998E-4</v>
-          </cell>
-          <cell r="E9">
-            <v>4.8999999999999998E-4</v>
-          </cell>
-          <cell r="F9">
-            <v>8.0900000000000004E-4</v>
-          </cell>
-          <cell r="G9">
-            <v>1.17E-3</v>
-          </cell>
-          <cell r="H9">
-            <v>1.5399999999999999E-3</v>
-          </cell>
-          <cell r="I9">
-            <v>1.91E-3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>0.4</v>
-          </cell>
-          <cell r="B10">
-            <v>4.2400000000000001E-5</v>
-          </cell>
-          <cell r="C10">
-            <v>1.08E-4</v>
-          </cell>
-          <cell r="D10">
-            <v>2.5399999999999999E-4</v>
-          </cell>
-          <cell r="E10">
-            <v>4.9799999999999996E-4</v>
-          </cell>
-          <cell r="F10">
-            <v>8.3299999999999997E-4</v>
-          </cell>
-          <cell r="G10">
-            <v>1.23E-3</v>
-          </cell>
-          <cell r="H10">
-            <v>1.65E-3</v>
-          </cell>
-          <cell r="I10">
-            <v>2.0699999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>0.45</v>
-          </cell>
-          <cell r="B11">
-            <v>4.4100000000000001E-5</v>
-          </cell>
-          <cell r="C11">
-            <v>1.11E-4</v>
-          </cell>
-          <cell r="D11">
-            <v>2.5799999999999998E-4</v>
-          </cell>
-          <cell r="E11">
-            <v>5.04E-4</v>
-          </cell>
-          <cell r="F11">
-            <v>8.4699999999999999E-4</v>
-          </cell>
-          <cell r="G11">
-            <v>1.2700000000000001E-3</v>
-          </cell>
-          <cell r="H11">
-            <v>1.73E-3</v>
-          </cell>
-          <cell r="I11">
-            <v>2.2000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>0.5</v>
-          </cell>
-          <cell r="B12">
-            <v>4.57E-5</v>
-          </cell>
-          <cell r="C12">
-            <v>1.13E-4</v>
-          </cell>
-          <cell r="D12">
-            <v>2.61E-4</v>
-          </cell>
-          <cell r="E12">
-            <v>5.0799999999999999E-4</v>
-          </cell>
-          <cell r="F12">
-            <v>8.5599999999999999E-4</v>
-          </cell>
-          <cell r="G12">
-            <v>1.2999999999999999E-3</v>
-          </cell>
-          <cell r="H12">
-            <v>1.8E-3</v>
-          </cell>
-          <cell r="I12">
-            <v>2.31E-3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>0.55000000000000004</v>
-          </cell>
-          <cell r="B13">
-            <v>4.6999999999999997E-5</v>
-          </cell>
-          <cell r="C13">
-            <v>1.1400000000000001E-4</v>
-          </cell>
-          <cell r="D13">
-            <v>2.63E-4</v>
-          </cell>
-          <cell r="E13">
-            <v>5.1199999999999998E-4</v>
-          </cell>
-          <cell r="F13">
-            <v>8.6300000000000005E-4</v>
-          </cell>
-          <cell r="G13">
-            <v>1.32E-3</v>
-          </cell>
-          <cell r="H13">
-            <v>1.8400000000000001E-3</v>
-          </cell>
-          <cell r="I13">
-            <v>2.3999999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>0.6</v>
-          </cell>
-          <cell r="B14">
-            <v>4.8300000000000002E-5</v>
-          </cell>
-          <cell r="C14">
-            <v>1.16E-4</v>
-          </cell>
-          <cell r="D14">
-            <v>2.6600000000000001E-4</v>
-          </cell>
-          <cell r="E14">
-            <v>5.1500000000000005E-4</v>
-          </cell>
-          <cell r="F14">
-            <v>8.6799999999999996E-4</v>
-          </cell>
-          <cell r="G14">
-            <v>1.33E-3</v>
-          </cell>
-          <cell r="H14">
-            <v>1.8699999999999999E-3</v>
-          </cell>
-          <cell r="I14">
-            <v>2.4599999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>0.65</v>
-          </cell>
-          <cell r="B15">
-            <v>4.9400000000000001E-5</v>
-          </cell>
-          <cell r="C15">
-            <v>1.17E-4</v>
-          </cell>
-          <cell r="D15">
-            <v>2.6800000000000001E-4</v>
-          </cell>
-          <cell r="E15">
-            <v>5.1800000000000001E-4</v>
-          </cell>
-          <cell r="F15">
-            <v>8.7299999999999997E-4</v>
-          </cell>
-          <cell r="G15">
-            <v>1.34E-3</v>
-          </cell>
-          <cell r="H15">
-            <v>1.89E-3</v>
-          </cell>
-          <cell r="I15">
-            <v>2.5100000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>0.7</v>
-          </cell>
-          <cell r="B16">
-            <v>5.0599999999999997E-5</v>
-          </cell>
-          <cell r="C16">
-            <v>1.1900000000000001E-4</v>
-          </cell>
-          <cell r="D16">
-            <v>2.6899999999999998E-4</v>
-          </cell>
-          <cell r="E16">
-            <v>5.22E-4</v>
-          </cell>
-          <cell r="F16">
-            <v>8.7799999999999998E-4</v>
-          </cell>
-          <cell r="G16">
-            <v>1.34E-3</v>
-          </cell>
-          <cell r="H16">
-            <v>1.9E-3</v>
-          </cell>
-          <cell r="I16">
-            <v>2.5400000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>0.75</v>
-          </cell>
-          <cell r="B17">
-            <v>5.1499999999999998E-5</v>
-          </cell>
-          <cell r="C17">
-            <v>1.2E-4</v>
-          </cell>
-          <cell r="D17">
-            <v>2.72E-4</v>
-          </cell>
-          <cell r="E17">
-            <v>5.2400000000000005E-4</v>
-          </cell>
-          <cell r="F17">
-            <v>8.8199999999999997E-4</v>
-          </cell>
-          <cell r="G17">
-            <v>1.3500000000000001E-3</v>
-          </cell>
-          <cell r="H17">
-            <v>1.91E-3</v>
-          </cell>
-          <cell r="I17">
-            <v>2.5600000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>0.8</v>
-          </cell>
-          <cell r="B18">
-            <v>5.2500000000000002E-5</v>
-          </cell>
-          <cell r="C18">
-            <v>1.21E-4</v>
-          </cell>
-          <cell r="D18">
-            <v>2.7300000000000002E-4</v>
-          </cell>
-          <cell r="E18">
-            <v>5.2700000000000002E-4</v>
-          </cell>
-          <cell r="F18">
-            <v>8.8599999999999996E-4</v>
-          </cell>
-          <cell r="G18">
-            <v>1.3600000000000001E-3</v>
-          </cell>
-          <cell r="H18">
-            <v>1.92E-3</v>
-          </cell>
-          <cell r="I18">
-            <v>2.5699999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>0.85</v>
-          </cell>
-          <cell r="B19">
-            <v>5.3399999999999997E-5</v>
-          </cell>
-          <cell r="C19">
-            <v>1.2300000000000001E-4</v>
-          </cell>
-          <cell r="D19">
-            <v>2.7500000000000002E-4</v>
-          </cell>
-          <cell r="E19">
-            <v>5.2899999999999996E-4</v>
-          </cell>
-          <cell r="F19">
-            <v>8.8900000000000003E-4</v>
-          </cell>
-          <cell r="G19">
-            <v>1.3600000000000001E-3</v>
-          </cell>
-          <cell r="H19">
-            <v>1.9300000000000001E-3</v>
-          </cell>
-          <cell r="I19">
-            <v>2.5899999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>0.9</v>
-          </cell>
-          <cell r="B20">
-            <v>5.3999999999999998E-5</v>
-          </cell>
-          <cell r="C20">
-            <v>1.2400000000000001E-4</v>
-          </cell>
-          <cell r="D20">
-            <v>2.7599999999999999E-4</v>
-          </cell>
-          <cell r="E20">
-            <v>5.3200000000000003E-4</v>
-          </cell>
-          <cell r="F20">
-            <v>8.9300000000000002E-4</v>
-          </cell>
-          <cell r="G20">
-            <v>1.3699999999999999E-3</v>
-          </cell>
-          <cell r="H20">
-            <v>1.9300000000000001E-3</v>
-          </cell>
-          <cell r="I20">
-            <v>2.5999999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>0.95</v>
-          </cell>
-          <cell r="B21">
-            <v>5.49E-5</v>
-          </cell>
-          <cell r="C21">
-            <v>1.25E-4</v>
-          </cell>
-          <cell r="D21">
-            <v>2.7799999999999998E-4</v>
-          </cell>
-          <cell r="E21">
-            <v>5.3399999999999997E-4</v>
-          </cell>
-          <cell r="F21">
-            <v>8.9599999999999999E-4</v>
-          </cell>
-          <cell r="G21">
-            <v>1.3699999999999999E-3</v>
-          </cell>
-          <cell r="H21">
-            <v>1.9400000000000001E-3</v>
-          </cell>
-          <cell r="I21">
-            <v>2.6099999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>1</v>
-          </cell>
-          <cell r="B22">
-            <v>5.5500000000000001E-5</v>
-          </cell>
-          <cell r="C22">
-            <v>1.25E-4</v>
-          </cell>
-          <cell r="D22">
-            <v>2.7900000000000001E-4</v>
-          </cell>
-          <cell r="E22">
-            <v>5.3600000000000002E-4</v>
-          </cell>
-          <cell r="F22">
-            <v>8.9899999999999995E-4</v>
-          </cell>
-          <cell r="G22">
-            <v>1.3799999999999999E-3</v>
-          </cell>
-          <cell r="H22">
-            <v>1.9499999999999999E-3</v>
-          </cell>
-          <cell r="I22">
-            <v>2.6099999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>1.05</v>
-          </cell>
-          <cell r="B23">
-            <v>5.6199999999999997E-5</v>
-          </cell>
-          <cell r="C23">
-            <v>1.26E-4</v>
-          </cell>
-          <cell r="D23">
-            <v>2.7999999999999998E-4</v>
-          </cell>
-          <cell r="E23">
-            <v>5.3799999999999996E-4</v>
-          </cell>
-          <cell r="F23">
-            <v>9.0200000000000002E-4</v>
-          </cell>
-          <cell r="G23">
-            <v>1.3799999999999999E-3</v>
-          </cell>
-          <cell r="H23">
-            <v>1.9499999999999999E-3</v>
-          </cell>
-          <cell r="I23">
-            <v>2.6199999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="B24">
-            <v>5.6900000000000001E-5</v>
-          </cell>
-          <cell r="C24">
-            <v>1.27E-4</v>
-          </cell>
-          <cell r="D24">
-            <v>2.8200000000000002E-4</v>
-          </cell>
-          <cell r="E24">
-            <v>5.4000000000000001E-4</v>
-          </cell>
-          <cell r="F24">
-            <v>9.0399999999999996E-4</v>
-          </cell>
-          <cell r="G24">
-            <v>1.3799999999999999E-3</v>
-          </cell>
-          <cell r="H24">
-            <v>1.9599999999999999E-3</v>
-          </cell>
-          <cell r="I24">
-            <v>2.63E-3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>1.1499999999999999</v>
-          </cell>
-          <cell r="B25">
-            <v>5.7299999999999997E-5</v>
-          </cell>
-          <cell r="C25">
-            <v>1.2799999999999999E-4</v>
-          </cell>
-          <cell r="D25">
-            <v>2.8299999999999999E-4</v>
-          </cell>
-          <cell r="E25">
-            <v>5.4100000000000003E-4</v>
-          </cell>
-          <cell r="F25">
-            <v>9.0700000000000004E-4</v>
-          </cell>
-          <cell r="G25">
-            <v>1.39E-3</v>
-          </cell>
-          <cell r="H25">
-            <v>1.9599999999999999E-3</v>
-          </cell>
-          <cell r="I25">
-            <v>2.64E-3</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>1.2</v>
-          </cell>
-          <cell r="B26">
-            <v>5.7899999999999998E-5</v>
-          </cell>
-          <cell r="C26">
-            <v>1.2899999999999999E-4</v>
-          </cell>
-          <cell r="D26">
-            <v>2.8400000000000002E-4</v>
-          </cell>
-          <cell r="E26">
-            <v>5.44E-4</v>
-          </cell>
-          <cell r="F26">
-            <v>9.1E-4</v>
-          </cell>
-          <cell r="G26">
-            <v>1.39E-3</v>
-          </cell>
-          <cell r="H26">
-            <v>1.97E-3</v>
-          </cell>
-          <cell r="I26">
-            <v>2.64E-3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>1.25</v>
-          </cell>
-          <cell r="B27">
-            <v>5.8400000000000003E-5</v>
-          </cell>
-          <cell r="C27">
-            <v>1.2899999999999999E-4</v>
-          </cell>
-          <cell r="D27">
-            <v>2.8499999999999999E-4</v>
-          </cell>
-          <cell r="E27">
-            <v>5.4500000000000002E-4</v>
-          </cell>
-          <cell r="F27">
-            <v>9.1200000000000005E-4</v>
-          </cell>
-          <cell r="G27">
-            <v>1.39E-3</v>
-          </cell>
-          <cell r="H27">
-            <v>1.97E-3</v>
-          </cell>
-          <cell r="I27">
-            <v>2.65E-3</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>1.3</v>
-          </cell>
-          <cell r="B28">
-            <v>5.8900000000000002E-5</v>
-          </cell>
-          <cell r="C28">
-            <v>1.2999999999999999E-4</v>
-          </cell>
-          <cell r="D28">
-            <v>2.8600000000000001E-4</v>
-          </cell>
-          <cell r="E28">
-            <v>5.4699999999999996E-4</v>
-          </cell>
-          <cell r="F28">
-            <v>9.1500000000000001E-4</v>
-          </cell>
-          <cell r="G28">
-            <v>1.4E-3</v>
-          </cell>
-          <cell r="H28">
-            <v>1.98E-3</v>
-          </cell>
-          <cell r="I28">
-            <v>2.65E-3</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>1.35</v>
-          </cell>
-          <cell r="B29">
-            <v>5.94E-5</v>
-          </cell>
-          <cell r="C29">
-            <v>1.3100000000000001E-4</v>
-          </cell>
-          <cell r="D29">
-            <v>2.8699999999999998E-4</v>
-          </cell>
-          <cell r="E29">
-            <v>5.4799999999999998E-4</v>
-          </cell>
-          <cell r="F29">
-            <v>9.1699999999999995E-4</v>
-          </cell>
-          <cell r="G29">
-            <v>1.4E-3</v>
-          </cell>
-          <cell r="H29">
-            <v>1.98E-3</v>
-          </cell>
-          <cell r="I29">
-            <v>2.66E-3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>1.4</v>
-          </cell>
-          <cell r="B30">
-            <v>5.9599999999999999E-5</v>
-          </cell>
-          <cell r="C30">
-            <v>1.3100000000000001E-4</v>
-          </cell>
-          <cell r="D30">
-            <v>2.8800000000000001E-4</v>
-          </cell>
-          <cell r="E30">
-            <v>5.5000000000000003E-4</v>
-          </cell>
-          <cell r="F30">
-            <v>9.19E-4</v>
-          </cell>
-          <cell r="G30">
-            <v>1.4E-3</v>
-          </cell>
-          <cell r="H30">
-            <v>1.98E-3</v>
-          </cell>
-          <cell r="I30">
-            <v>2.6700000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>1.45</v>
-          </cell>
-          <cell r="B31">
-            <v>6.02E-5</v>
-          </cell>
-          <cell r="C31">
-            <v>1.3200000000000001E-4</v>
-          </cell>
-          <cell r="D31">
-            <v>2.8899999999999998E-4</v>
-          </cell>
-          <cell r="E31">
-            <v>5.5099999999999995E-4</v>
-          </cell>
-          <cell r="F31">
-            <v>9.2199999999999997E-4</v>
-          </cell>
-          <cell r="G31">
-            <v>1.41E-3</v>
-          </cell>
-          <cell r="H31">
-            <v>1.99E-3</v>
-          </cell>
-          <cell r="I31">
-            <v>2.6700000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>1.5</v>
-          </cell>
-          <cell r="B32">
-            <v>6.05E-5</v>
-          </cell>
-          <cell r="C32">
-            <v>1.3200000000000001E-4</v>
-          </cell>
-          <cell r="D32">
-            <v>2.9E-4</v>
-          </cell>
-          <cell r="E32">
-            <v>5.5199999999999997E-4</v>
-          </cell>
-          <cell r="F32">
-            <v>9.2299999999999999E-4</v>
-          </cell>
-          <cell r="G32">
-            <v>1.41E-3</v>
-          </cell>
-          <cell r="H32">
-            <v>1.99E-3</v>
-          </cell>
-          <cell r="I32">
-            <v>2.6800000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>1.55</v>
-          </cell>
-          <cell r="B33">
-            <v>6.0900000000000003E-5</v>
-          </cell>
-          <cell r="C33">
-            <v>1.3300000000000001E-4</v>
-          </cell>
-          <cell r="D33">
-            <v>2.9100000000000003E-4</v>
-          </cell>
-          <cell r="E33">
-            <v>5.5400000000000002E-4</v>
-          </cell>
-          <cell r="F33">
-            <v>9.2500000000000004E-4</v>
-          </cell>
-          <cell r="G33">
-            <v>1.41E-3</v>
-          </cell>
-          <cell r="H33">
-            <v>2E-3</v>
-          </cell>
-          <cell r="I33">
-            <v>2.6800000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>1.6</v>
-          </cell>
-          <cell r="B34">
-            <v>6.1299999999999999E-5</v>
-          </cell>
-          <cell r="C34">
-            <v>1.34E-4</v>
-          </cell>
-          <cell r="D34">
-            <v>2.92E-4</v>
-          </cell>
-          <cell r="E34">
-            <v>5.5500000000000005E-4</v>
-          </cell>
-          <cell r="F34">
-            <v>9.2699999999999998E-4</v>
-          </cell>
-          <cell r="G34">
-            <v>1.42E-3</v>
-          </cell>
-          <cell r="H34">
-            <v>2E-3</v>
-          </cell>
-          <cell r="I34">
-            <v>2.6900000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>1.65</v>
-          </cell>
-          <cell r="B35">
-            <v>6.1500000000000004E-5</v>
-          </cell>
-          <cell r="C35">
-            <v>1.34E-4</v>
-          </cell>
-          <cell r="D35">
-            <v>2.92E-4</v>
-          </cell>
-          <cell r="E35">
-            <v>5.5599999999999996E-4</v>
-          </cell>
-          <cell r="F35">
-            <v>9.2900000000000003E-4</v>
-          </cell>
-          <cell r="G35">
-            <v>1.42E-3</v>
-          </cell>
-          <cell r="H35">
-            <v>2E-3</v>
-          </cell>
-          <cell r="I35">
-            <v>2.6900000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>1.7</v>
-          </cell>
-          <cell r="B36">
-            <v>6.19E-5</v>
-          </cell>
-          <cell r="C36">
-            <v>1.34E-4</v>
-          </cell>
-          <cell r="D36">
-            <v>2.9300000000000002E-4</v>
-          </cell>
-          <cell r="E36">
-            <v>5.5800000000000001E-4</v>
-          </cell>
-          <cell r="F36">
-            <v>9.3099999999999997E-4</v>
-          </cell>
-          <cell r="G36">
-            <v>1.42E-3</v>
-          </cell>
-          <cell r="H36">
-            <v>2.0100000000000001E-3</v>
-          </cell>
-          <cell r="I36">
-            <v>2.7000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>1.75</v>
-          </cell>
-          <cell r="B37">
-            <v>6.2100000000000005E-5</v>
-          </cell>
-          <cell r="C37">
-            <v>1.35E-4</v>
-          </cell>
-          <cell r="D37">
-            <v>2.9399999999999999E-4</v>
-          </cell>
-          <cell r="E37">
-            <v>5.5800000000000001E-4</v>
-          </cell>
-          <cell r="F37">
-            <v>9.3300000000000002E-4</v>
-          </cell>
-          <cell r="G37">
-            <v>1.42E-3</v>
-          </cell>
-          <cell r="H37">
-            <v>2.0100000000000001E-3</v>
-          </cell>
-          <cell r="I37">
-            <v>2.7000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>1.8</v>
-          </cell>
-          <cell r="B38">
-            <v>6.2399999999999999E-5</v>
-          </cell>
-          <cell r="C38">
-            <v>1.35E-4</v>
-          </cell>
-          <cell r="D38">
-            <v>2.9399999999999999E-4</v>
-          </cell>
-          <cell r="E38">
-            <v>5.5999999999999995E-4</v>
-          </cell>
-          <cell r="F38">
-            <v>9.3499999999999996E-4</v>
-          </cell>
-          <cell r="G38">
-            <v>1.4300000000000001E-3</v>
-          </cell>
-          <cell r="H38">
-            <v>2.0100000000000001E-3</v>
-          </cell>
-          <cell r="I38">
-            <v>2.7100000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>1.85</v>
-          </cell>
-          <cell r="B39">
-            <v>6.2799999999999995E-5</v>
-          </cell>
-          <cell r="C39">
-            <v>1.36E-4</v>
-          </cell>
-          <cell r="D39">
-            <v>2.9500000000000001E-4</v>
-          </cell>
-          <cell r="E39">
-            <v>5.6099999999999998E-4</v>
-          </cell>
-          <cell r="F39">
-            <v>9.3700000000000001E-4</v>
-          </cell>
-          <cell r="G39">
-            <v>1.4300000000000001E-3</v>
-          </cell>
-          <cell r="H39">
-            <v>2.0200000000000001E-3</v>
-          </cell>
-          <cell r="I39">
-            <v>2.7100000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>1.9</v>
-          </cell>
-          <cell r="B40">
-            <v>6.2899999999999997E-5</v>
-          </cell>
-          <cell r="C40">
-            <v>1.36E-4</v>
-          </cell>
-          <cell r="D40">
-            <v>2.9599999999999998E-4</v>
-          </cell>
-          <cell r="E40">
-            <v>5.62E-4</v>
-          </cell>
-          <cell r="F40">
-            <v>9.3800000000000003E-4</v>
-          </cell>
-          <cell r="G40">
-            <v>1.4300000000000001E-3</v>
-          </cell>
-          <cell r="H40">
-            <v>2.0200000000000001E-3</v>
-          </cell>
-          <cell r="I40">
-            <v>2.7100000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>1.95</v>
-          </cell>
-          <cell r="B41">
-            <v>6.3299999999999994E-5</v>
-          </cell>
-          <cell r="C41">
-            <v>1.37E-4</v>
-          </cell>
-          <cell r="D41">
-            <v>2.9599999999999998E-4</v>
-          </cell>
-          <cell r="E41">
-            <v>5.6300000000000002E-4</v>
-          </cell>
-          <cell r="F41">
-            <v>9.3999999999999997E-4</v>
-          </cell>
-          <cell r="G41">
-            <v>1.4300000000000001E-3</v>
-          </cell>
-          <cell r="H41">
-            <v>2.0200000000000001E-3</v>
-          </cell>
-          <cell r="I41">
-            <v>2.7200000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>2</v>
-          </cell>
-          <cell r="B42">
-            <v>6.3499999999999999E-5</v>
-          </cell>
-          <cell r="C42">
-            <v>1.37E-4</v>
-          </cell>
-          <cell r="D42">
-            <v>2.9700000000000001E-4</v>
-          </cell>
-          <cell r="E42">
-            <v>5.6400000000000005E-4</v>
-          </cell>
-          <cell r="F42">
-            <v>9.41E-4</v>
-          </cell>
-          <cell r="G42">
-            <v>1.4400000000000001E-3</v>
-          </cell>
-          <cell r="H42">
-            <v>2.0300000000000001E-3</v>
-          </cell>
-          <cell r="I42">
-            <v>2.7200000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>2.0499999999999998</v>
-          </cell>
-          <cell r="B43">
-            <v>6.3700000000000003E-5</v>
-          </cell>
-          <cell r="C43">
-            <v>1.37E-4</v>
-          </cell>
-          <cell r="D43">
-            <v>2.9799999999999998E-4</v>
-          </cell>
-          <cell r="E43">
-            <v>5.6499999999999996E-4</v>
-          </cell>
-          <cell r="F43">
-            <v>9.4300000000000004E-4</v>
-          </cell>
-          <cell r="G43">
-            <v>1.4400000000000001E-3</v>
-          </cell>
-          <cell r="H43">
-            <v>2.0300000000000001E-3</v>
-          </cell>
-          <cell r="I43">
-            <v>2.7299999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>2.1</v>
-          </cell>
-          <cell r="B44">
-            <v>6.3999999999999997E-5</v>
-          </cell>
-          <cell r="C44">
-            <v>1.3799999999999999E-4</v>
-          </cell>
-          <cell r="D44">
-            <v>2.99E-4</v>
-          </cell>
-          <cell r="E44">
-            <v>5.6599999999999999E-4</v>
-          </cell>
-          <cell r="F44">
-            <v>9.4499999999999998E-4</v>
-          </cell>
-          <cell r="G44">
-            <v>1.4400000000000001E-3</v>
-          </cell>
-          <cell r="H44">
-            <v>2.0300000000000001E-3</v>
-          </cell>
-          <cell r="I44">
-            <v>2.7299999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>2.15</v>
-          </cell>
-          <cell r="B45">
-            <v>6.41E-5</v>
-          </cell>
-          <cell r="C45">
-            <v>1.3799999999999999E-4</v>
-          </cell>
-          <cell r="D45">
-            <v>2.99E-4</v>
-          </cell>
-          <cell r="E45">
-            <v>5.6700000000000001E-4</v>
-          </cell>
-          <cell r="F45">
-            <v>9.4600000000000001E-4</v>
-          </cell>
-          <cell r="G45">
-            <v>1.4400000000000001E-3</v>
-          </cell>
-          <cell r="H45">
-            <v>2.0400000000000001E-3</v>
-          </cell>
-          <cell r="I45">
-            <v>2.7299999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>2.2000000000000002</v>
-          </cell>
-          <cell r="B46">
-            <v>6.4399999999999993E-5</v>
-          </cell>
-          <cell r="C46">
-            <v>1.3799999999999999E-4</v>
-          </cell>
-          <cell r="D46">
-            <v>2.9999999999999997E-4</v>
-          </cell>
-          <cell r="E46">
-            <v>5.6899999999999995E-4</v>
-          </cell>
-          <cell r="F46">
-            <v>9.4799999999999995E-4</v>
-          </cell>
-          <cell r="G46">
-            <v>1.4499999999999999E-3</v>
-          </cell>
-          <cell r="H46">
-            <v>2.0400000000000001E-3</v>
-          </cell>
-          <cell r="I46">
-            <v>2.7399999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>2.25</v>
-          </cell>
-          <cell r="B47">
-            <v>6.4599999999999998E-5</v>
-          </cell>
-          <cell r="C47">
-            <v>1.3899999999999999E-4</v>
-          </cell>
-          <cell r="D47">
-            <v>2.9999999999999997E-4</v>
-          </cell>
-          <cell r="E47">
-            <v>5.6899999999999995E-4</v>
-          </cell>
-          <cell r="F47">
-            <v>9.4899999999999997E-4</v>
-          </cell>
-          <cell r="G47">
-            <v>1.4499999999999999E-3</v>
-          </cell>
-          <cell r="H47">
-            <v>2.0400000000000001E-3</v>
-          </cell>
-          <cell r="I47">
-            <v>2.7399999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>2.2999999999999998</v>
-          </cell>
-          <cell r="B48">
-            <v>6.4800000000000003E-5</v>
-          </cell>
-          <cell r="C48">
-            <v>1.3899999999999999E-4</v>
-          </cell>
-          <cell r="D48">
-            <v>3.01E-4</v>
-          </cell>
-          <cell r="E48">
-            <v>5.6999999999999998E-4</v>
-          </cell>
-          <cell r="F48">
-            <v>9.5100000000000002E-4</v>
-          </cell>
-          <cell r="G48">
-            <v>1.4499999999999999E-3</v>
-          </cell>
-          <cell r="H48">
-            <v>2.0500000000000002E-3</v>
-          </cell>
-          <cell r="I48">
-            <v>2.7499999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>2.35</v>
-          </cell>
-          <cell r="B49">
-            <v>6.5099999999999997E-5</v>
-          </cell>
-          <cell r="C49">
-            <v>1.3899999999999999E-4</v>
-          </cell>
-          <cell r="D49">
-            <v>3.0200000000000002E-4</v>
-          </cell>
-          <cell r="E49">
-            <v>5.71E-4</v>
-          </cell>
-          <cell r="F49">
-            <v>9.5200000000000005E-4</v>
-          </cell>
-          <cell r="G49">
-            <v>1.4499999999999999E-3</v>
-          </cell>
-          <cell r="H49">
-            <v>2.0500000000000002E-3</v>
-          </cell>
-          <cell r="I49">
-            <v>2.7499999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>2.4</v>
-          </cell>
-          <cell r="B50">
-            <v>6.5099999999999997E-5</v>
-          </cell>
-          <cell r="C50">
-            <v>1.3999999999999999E-4</v>
-          </cell>
-          <cell r="D50">
-            <v>3.0200000000000002E-4</v>
-          </cell>
-          <cell r="E50">
-            <v>5.7200000000000003E-4</v>
-          </cell>
-          <cell r="F50">
-            <v>9.5399999999999999E-4</v>
-          </cell>
-          <cell r="G50">
-            <v>1.4499999999999999E-3</v>
-          </cell>
-          <cell r="H50">
-            <v>2.0500000000000002E-3</v>
-          </cell>
-          <cell r="I50">
-            <v>2.7499999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>2.4500000000000002</v>
-          </cell>
-          <cell r="B51">
-            <v>6.5500000000000006E-5</v>
-          </cell>
-          <cell r="C51">
-            <v>1.3999999999999999E-4</v>
-          </cell>
-          <cell r="D51">
-            <v>3.0200000000000002E-4</v>
-          </cell>
-          <cell r="E51">
-            <v>5.7300000000000005E-4</v>
-          </cell>
-          <cell r="F51">
-            <v>9.5500000000000001E-4</v>
-          </cell>
-          <cell r="G51">
-            <v>1.4599999999999999E-3</v>
-          </cell>
-          <cell r="H51">
-            <v>2.0500000000000002E-3</v>
-          </cell>
-          <cell r="I51">
-            <v>2.7599999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>2.5</v>
-          </cell>
-          <cell r="B52">
-            <v>6.5599999999999995E-5</v>
-          </cell>
-          <cell r="C52">
-            <v>1.3999999999999999E-4</v>
-          </cell>
-          <cell r="D52">
-            <v>3.0299999999999999E-4</v>
-          </cell>
-          <cell r="E52">
-            <v>5.7399999999999997E-4</v>
-          </cell>
-          <cell r="F52">
-            <v>9.5699999999999995E-4</v>
-          </cell>
-          <cell r="G52">
-            <v>1.4599999999999999E-3</v>
-          </cell>
-          <cell r="H52">
-            <v>2.0600000000000002E-3</v>
-          </cell>
-          <cell r="I52">
-            <v>2.7599999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>2.5499999999999998</v>
-          </cell>
-          <cell r="B53">
-            <v>6.58E-5</v>
-          </cell>
-          <cell r="C53">
-            <v>1.3999999999999999E-4</v>
-          </cell>
-          <cell r="D53">
-            <v>3.0400000000000002E-4</v>
-          </cell>
-          <cell r="E53">
-            <v>5.7499999999999999E-4</v>
-          </cell>
-          <cell r="F53">
-            <v>9.5799999999999998E-4</v>
-          </cell>
-          <cell r="G53">
-            <v>1.4599999999999999E-3</v>
-          </cell>
-          <cell r="H53">
-            <v>2.0600000000000002E-3</v>
-          </cell>
-          <cell r="I53">
-            <v>2.7599999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>2.6</v>
-          </cell>
-          <cell r="B54">
-            <v>6.6000000000000005E-5</v>
-          </cell>
-          <cell r="C54">
-            <v>1.4100000000000001E-4</v>
-          </cell>
-          <cell r="D54">
-            <v>3.0400000000000002E-4</v>
-          </cell>
-          <cell r="E54">
-            <v>5.7600000000000001E-4</v>
-          </cell>
-          <cell r="F54">
-            <v>9.59E-4</v>
-          </cell>
-          <cell r="G54">
-            <v>1.4599999999999999E-3</v>
-          </cell>
-          <cell r="H54">
-            <v>2.0600000000000002E-3</v>
-          </cell>
-          <cell r="I54">
-            <v>2.7699999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>2.65</v>
-          </cell>
-          <cell r="B55">
-            <v>6.6000000000000005E-5</v>
-          </cell>
-          <cell r="C55">
-            <v>1.4100000000000001E-4</v>
-          </cell>
-          <cell r="D55">
-            <v>3.0499999999999999E-4</v>
-          </cell>
-          <cell r="E55">
-            <v>5.7700000000000004E-4</v>
-          </cell>
-          <cell r="F55">
-            <v>9.6100000000000005E-4</v>
-          </cell>
-          <cell r="G55">
-            <v>1.4599999999999999E-3</v>
-          </cell>
-          <cell r="H55">
-            <v>2.0600000000000002E-3</v>
-          </cell>
-          <cell r="I55">
-            <v>2.7699999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>2.7</v>
-          </cell>
-          <cell r="B56">
-            <v>6.6400000000000001E-5</v>
-          </cell>
-          <cell r="C56">
-            <v>1.4100000000000001E-4</v>
-          </cell>
-          <cell r="D56">
-            <v>3.0499999999999999E-4</v>
-          </cell>
-          <cell r="E56">
-            <v>5.7799999999999995E-4</v>
-          </cell>
-          <cell r="F56">
-            <v>9.6199999999999996E-4</v>
-          </cell>
-          <cell r="G56">
-            <v>1.47E-3</v>
-          </cell>
-          <cell r="H56">
-            <v>2.0699999999999998E-3</v>
-          </cell>
-          <cell r="I56">
-            <v>2.7699999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>2.75</v>
-          </cell>
-          <cell r="B57">
-            <v>6.6500000000000004E-5</v>
-          </cell>
-          <cell r="C57">
-            <v>1.4200000000000001E-4</v>
-          </cell>
-          <cell r="D57">
-            <v>3.0600000000000001E-4</v>
-          </cell>
-          <cell r="E57">
-            <v>5.7799999999999995E-4</v>
-          </cell>
-          <cell r="F57">
-            <v>9.6299999999999999E-4</v>
-          </cell>
-          <cell r="G57">
-            <v>1.47E-3</v>
-          </cell>
-          <cell r="H57">
-            <v>2.0699999999999998E-3</v>
-          </cell>
-          <cell r="I57">
-            <v>2.7799999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>2.8</v>
-          </cell>
-          <cell r="B58">
-            <v>6.6699999999999995E-5</v>
-          </cell>
-          <cell r="C58">
-            <v>1.4200000000000001E-4</v>
-          </cell>
-          <cell r="D58">
-            <v>3.0600000000000001E-4</v>
-          </cell>
-          <cell r="E58">
-            <v>5.7899999999999998E-4</v>
-          </cell>
-          <cell r="F58">
-            <v>9.6500000000000004E-4</v>
-          </cell>
-          <cell r="G58">
-            <v>1.47E-3</v>
-          </cell>
-          <cell r="H58">
-            <v>2.0699999999999998E-3</v>
-          </cell>
-          <cell r="I58">
-            <v>2.7799999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>2.85</v>
-          </cell>
-          <cell r="B59">
-            <v>6.69E-5</v>
-          </cell>
-          <cell r="C59">
-            <v>1.4200000000000001E-4</v>
-          </cell>
-          <cell r="D59">
-            <v>3.0699999999999998E-4</v>
-          </cell>
-          <cell r="E59">
-            <v>5.8E-4</v>
-          </cell>
-          <cell r="F59">
-            <v>9.6599999999999995E-4</v>
-          </cell>
-          <cell r="G59">
-            <v>1.47E-3</v>
-          </cell>
-          <cell r="H59">
-            <v>2.0699999999999998E-3</v>
-          </cell>
-          <cell r="I59">
-            <v>2.7799999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>2.9</v>
-          </cell>
-          <cell r="B60">
-            <v>6.69E-5</v>
-          </cell>
-          <cell r="C60">
-            <v>1.4200000000000001E-4</v>
-          </cell>
-          <cell r="D60">
-            <v>3.0699999999999998E-4</v>
-          </cell>
-          <cell r="E60">
-            <v>5.8100000000000003E-4</v>
-          </cell>
-          <cell r="F60">
-            <v>9.6699999999999998E-4</v>
-          </cell>
-          <cell r="G60">
-            <v>1.47E-3</v>
-          </cell>
-          <cell r="H60">
-            <v>2.0799999999999998E-3</v>
-          </cell>
-          <cell r="I60">
-            <v>2.7899999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>2.95</v>
-          </cell>
-          <cell r="B61">
-            <v>6.7199999999999994E-5</v>
-          </cell>
-          <cell r="C61">
-            <v>1.4300000000000001E-4</v>
-          </cell>
-          <cell r="D61">
-            <v>3.0800000000000001E-4</v>
-          </cell>
-          <cell r="E61">
-            <v>5.8200000000000005E-4</v>
-          </cell>
-          <cell r="F61">
-            <v>9.6900000000000003E-4</v>
-          </cell>
-          <cell r="G61">
-            <v>1.48E-3</v>
-          </cell>
-          <cell r="H61">
-            <v>2.0799999999999998E-3</v>
-          </cell>
-          <cell r="I61">
-            <v>2.7899999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>3</v>
-          </cell>
-          <cell r="B62">
-            <v>6.7299999999999996E-5</v>
-          </cell>
-          <cell r="C62">
-            <v>1.4300000000000001E-4</v>
-          </cell>
-          <cell r="D62">
-            <v>3.0800000000000001E-4</v>
-          </cell>
-          <cell r="E62">
-            <v>5.8299999999999997E-4</v>
-          </cell>
-          <cell r="F62">
-            <v>9.7000000000000005E-4</v>
-          </cell>
-          <cell r="G62">
-            <v>1.48E-3</v>
-          </cell>
-          <cell r="H62">
-            <v>2.0799999999999998E-3</v>
-          </cell>
-          <cell r="I62">
-            <v>2.7899999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>3.05</v>
-          </cell>
-          <cell r="B63">
-            <v>6.7500000000000001E-5</v>
-          </cell>
-          <cell r="C63">
-            <v>1.4300000000000001E-4</v>
-          </cell>
-          <cell r="D63">
-            <v>3.0899999999999998E-4</v>
-          </cell>
-          <cell r="E63">
-            <v>5.8399999999999999E-4</v>
-          </cell>
-          <cell r="F63">
-            <v>9.7099999999999997E-4</v>
-          </cell>
-          <cell r="G63">
-            <v>1.48E-3</v>
-          </cell>
-          <cell r="H63">
-            <v>2.0799999999999998E-3</v>
-          </cell>
-          <cell r="I63">
-            <v>2.8E-3</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>3.1</v>
-          </cell>
-          <cell r="B64">
-            <v>6.7700000000000006E-5</v>
-          </cell>
-          <cell r="C64">
-            <v>1.44E-4</v>
-          </cell>
-          <cell r="D64">
-            <v>3.0899999999999998E-4</v>
-          </cell>
-          <cell r="E64">
-            <v>5.8399999999999999E-4</v>
-          </cell>
-          <cell r="F64">
-            <v>9.7199999999999999E-4</v>
-          </cell>
-          <cell r="G64">
-            <v>1.48E-3</v>
-          </cell>
-          <cell r="H64">
-            <v>2.0899999999999998E-3</v>
-          </cell>
-          <cell r="I64">
-            <v>2.8E-3</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>3.15</v>
-          </cell>
-          <cell r="B65">
-            <v>6.7700000000000006E-5</v>
-          </cell>
-          <cell r="C65">
-            <v>1.44E-4</v>
-          </cell>
-          <cell r="D65">
-            <v>3.1E-4</v>
-          </cell>
-          <cell r="E65">
-            <v>5.8500000000000002E-4</v>
-          </cell>
-          <cell r="F65">
-            <v>9.7300000000000002E-4</v>
-          </cell>
-          <cell r="G65">
-            <v>1.48E-3</v>
-          </cell>
-          <cell r="H65">
-            <v>2.0899999999999998E-3</v>
-          </cell>
-          <cell r="I65">
-            <v>2.8E-3</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>3.2</v>
-          </cell>
-          <cell r="B66">
-            <v>6.7999999999999999E-5</v>
-          </cell>
-          <cell r="C66">
-            <v>1.44E-4</v>
-          </cell>
-          <cell r="D66">
-            <v>3.1E-4</v>
-          </cell>
-          <cell r="E66">
-            <v>5.8600000000000004E-4</v>
-          </cell>
-          <cell r="F66">
-            <v>9.7499999999999996E-4</v>
-          </cell>
-          <cell r="G66">
-            <v>1.48E-3</v>
-          </cell>
-          <cell r="H66">
-            <v>2.0899999999999998E-3</v>
-          </cell>
-          <cell r="I66">
-            <v>2.81E-3</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>3.25</v>
-          </cell>
-          <cell r="B67">
-            <v>6.8100000000000002E-5</v>
-          </cell>
-          <cell r="C67">
-            <v>1.44E-4</v>
-          </cell>
-          <cell r="D67">
-            <v>3.1100000000000002E-4</v>
-          </cell>
-          <cell r="E67">
-            <v>5.8699999999999996E-4</v>
-          </cell>
-          <cell r="F67">
-            <v>9.7599999999999998E-4</v>
-          </cell>
-          <cell r="G67">
-            <v>1.49E-3</v>
-          </cell>
-          <cell r="H67">
-            <v>2.0899999999999998E-3</v>
-          </cell>
-          <cell r="I67">
-            <v>2.81E-3</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>3.3</v>
-          </cell>
-          <cell r="B68">
-            <v>6.8300000000000007E-5</v>
-          </cell>
-          <cell r="C68">
-            <v>1.45E-4</v>
-          </cell>
-          <cell r="D68">
-            <v>3.1100000000000002E-4</v>
-          </cell>
-          <cell r="E68">
-            <v>5.8799999999999998E-4</v>
-          </cell>
-          <cell r="F68">
-            <v>9.77E-4</v>
-          </cell>
-          <cell r="G68">
-            <v>1.49E-3</v>
-          </cell>
-          <cell r="H68">
-            <v>2.0999999999999999E-3</v>
-          </cell>
-          <cell r="I68">
-            <v>2.81E-3</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>3.35</v>
-          </cell>
-          <cell r="B69">
-            <v>6.8499999999999998E-5</v>
-          </cell>
-          <cell r="C69">
-            <v>1.45E-4</v>
-          </cell>
-          <cell r="D69">
-            <v>3.1199999999999999E-4</v>
-          </cell>
-          <cell r="E69">
-            <v>5.8799999999999998E-4</v>
-          </cell>
-          <cell r="F69">
-            <v>9.7900000000000005E-4</v>
-          </cell>
-          <cell r="G69">
-            <v>1.49E-3</v>
-          </cell>
-          <cell r="H69">
-            <v>2.0999999999999999E-3</v>
-          </cell>
-          <cell r="I69">
-            <v>2.81E-3</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>3.4</v>
-          </cell>
-          <cell r="B70">
-            <v>6.8499999999999998E-5</v>
-          </cell>
-          <cell r="C70">
-            <v>1.45E-4</v>
-          </cell>
-          <cell r="D70">
-            <v>3.1199999999999999E-4</v>
-          </cell>
-          <cell r="E70">
-            <v>5.8900000000000001E-4</v>
-          </cell>
-          <cell r="F70">
-            <v>9.7999999999999997E-4</v>
-          </cell>
-          <cell r="G70">
-            <v>1.49E-3</v>
-          </cell>
-          <cell r="H70">
-            <v>2.0999999999999999E-3</v>
-          </cell>
-          <cell r="I70">
-            <v>2.82E-3</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>3.45</v>
-          </cell>
-          <cell r="B71">
-            <v>6.8800000000000005E-5</v>
-          </cell>
-          <cell r="C71">
-            <v>1.45E-4</v>
-          </cell>
-          <cell r="D71">
-            <v>3.1199999999999999E-4</v>
-          </cell>
-          <cell r="E71">
-            <v>5.9000000000000003E-4</v>
-          </cell>
-          <cell r="F71">
-            <v>9.810000000000001E-4</v>
-          </cell>
-          <cell r="G71">
-            <v>1.49E-3</v>
-          </cell>
-          <cell r="H71">
-            <v>2.0999999999999999E-3</v>
-          </cell>
-          <cell r="I71">
-            <v>2.82E-3</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>3.5</v>
-          </cell>
-          <cell r="B72">
-            <v>6.8800000000000005E-5</v>
-          </cell>
-          <cell r="C72">
-            <v>1.46E-4</v>
-          </cell>
-          <cell r="D72">
-            <v>3.1300000000000002E-4</v>
-          </cell>
-          <cell r="E72">
-            <v>5.9100000000000005E-4</v>
-          </cell>
-          <cell r="F72">
-            <v>9.8200000000000002E-4</v>
-          </cell>
-          <cell r="G72">
-            <v>1.5E-3</v>
-          </cell>
-          <cell r="H72">
-            <v>2.1099999999999999E-3</v>
-          </cell>
-          <cell r="I72">
-            <v>2.82E-3</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>3.55</v>
-          </cell>
-          <cell r="B73">
-            <v>6.8999999999999997E-5</v>
-          </cell>
-          <cell r="C73">
-            <v>1.46E-4</v>
-          </cell>
-          <cell r="D73">
-            <v>3.1300000000000002E-4</v>
-          </cell>
-          <cell r="E73">
-            <v>5.9199999999999997E-4</v>
-          </cell>
-          <cell r="F73">
-            <v>9.8299999999999993E-4</v>
-          </cell>
-          <cell r="G73">
-            <v>1.5E-3</v>
-          </cell>
-          <cell r="H73">
-            <v>2.1099999999999999E-3</v>
-          </cell>
-          <cell r="I73">
-            <v>2.8300000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>3.6</v>
-          </cell>
-          <cell r="B74">
-            <v>6.9200000000000002E-5</v>
-          </cell>
-          <cell r="C74">
-            <v>1.46E-4</v>
-          </cell>
-          <cell r="D74">
-            <v>3.1399999999999999E-4</v>
-          </cell>
-          <cell r="E74">
-            <v>5.9199999999999997E-4</v>
-          </cell>
-          <cell r="F74">
-            <v>9.8499999999999998E-4</v>
-          </cell>
-          <cell r="G74">
-            <v>1.5E-3</v>
-          </cell>
-          <cell r="H74">
-            <v>2.1099999999999999E-3</v>
-          </cell>
-          <cell r="I74">
-            <v>2.8300000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>3.65</v>
-          </cell>
-          <cell r="B75">
-            <v>6.9200000000000002E-5</v>
-          </cell>
-          <cell r="C75">
-            <v>1.46E-4</v>
-          </cell>
-          <cell r="D75">
-            <v>3.1399999999999999E-4</v>
-          </cell>
-          <cell r="E75">
-            <v>5.9299999999999999E-4</v>
-          </cell>
-          <cell r="F75">
-            <v>9.859999999999999E-4</v>
-          </cell>
-          <cell r="G75">
-            <v>1.5E-3</v>
-          </cell>
-          <cell r="H75">
-            <v>2.1099999999999999E-3</v>
-          </cell>
-          <cell r="I75">
-            <v>2.8300000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>3.7</v>
-          </cell>
-          <cell r="B76">
-            <v>6.9499999999999995E-5</v>
-          </cell>
-          <cell r="C76">
-            <v>1.47E-4</v>
-          </cell>
-          <cell r="D76">
-            <v>3.1500000000000001E-4</v>
-          </cell>
-          <cell r="E76">
-            <v>5.9400000000000002E-4</v>
-          </cell>
-          <cell r="F76">
-            <v>9.8700000000000003E-4</v>
-          </cell>
-          <cell r="G76">
-            <v>1.5E-3</v>
-          </cell>
-          <cell r="H76">
-            <v>2.1099999999999999E-3</v>
-          </cell>
-          <cell r="I76">
-            <v>2.8300000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>3.75</v>
-          </cell>
-          <cell r="B77">
-            <v>6.9599999999999998E-5</v>
-          </cell>
-          <cell r="C77">
-            <v>1.47E-4</v>
-          </cell>
-          <cell r="D77">
-            <v>3.1599999999999998E-4</v>
-          </cell>
-          <cell r="E77">
-            <v>5.9500000000000004E-4</v>
-          </cell>
-          <cell r="F77">
-            <v>9.8799999999999995E-4</v>
-          </cell>
-          <cell r="G77">
-            <v>1.5E-3</v>
-          </cell>
-          <cell r="H77">
-            <v>2.1199999999999999E-3</v>
-          </cell>
-          <cell r="I77">
-            <v>2.8400000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>3.8</v>
-          </cell>
-          <cell r="B78">
-            <v>6.97E-5</v>
-          </cell>
-          <cell r="C78">
-            <v>1.47E-4</v>
-          </cell>
-          <cell r="D78">
-            <v>3.1599999999999998E-4</v>
-          </cell>
-          <cell r="E78">
-            <v>5.9599999999999996E-4</v>
-          </cell>
-          <cell r="F78">
-            <v>9.8999999999999999E-4</v>
-          </cell>
-          <cell r="G78">
-            <v>1.5E-3</v>
-          </cell>
-          <cell r="H78">
-            <v>2.1199999999999999E-3</v>
-          </cell>
-          <cell r="I78">
-            <v>2.8400000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>3.85</v>
-          </cell>
-          <cell r="B79">
-            <v>6.9999999999999994E-5</v>
-          </cell>
-          <cell r="C79">
-            <v>1.4799999999999999E-4</v>
-          </cell>
-          <cell r="D79">
-            <v>3.1599999999999998E-4</v>
-          </cell>
-          <cell r="E79">
-            <v>5.9599999999999996E-4</v>
-          </cell>
-          <cell r="F79">
-            <v>9.8999999999999999E-4</v>
-          </cell>
-          <cell r="G79">
-            <v>1.5100000000000001E-3</v>
-          </cell>
-          <cell r="H79">
-            <v>2.1199999999999999E-3</v>
-          </cell>
-          <cell r="I79">
-            <v>2.8400000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>3.9</v>
-          </cell>
-          <cell r="B80">
-            <v>6.9900000000000005E-5</v>
-          </cell>
-          <cell r="C80">
-            <v>1.4799999999999999E-4</v>
-          </cell>
-          <cell r="D80">
-            <v>3.1700000000000001E-4</v>
-          </cell>
-          <cell r="E80">
-            <v>5.9699999999999998E-4</v>
-          </cell>
-          <cell r="F80">
-            <v>9.9099999999999991E-4</v>
-          </cell>
-          <cell r="G80">
-            <v>1.5100000000000001E-3</v>
-          </cell>
-          <cell r="H80">
-            <v>2.1199999999999999E-3</v>
-          </cell>
-          <cell r="I80">
-            <v>2.8500000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>3.95</v>
-          </cell>
-          <cell r="B81">
-            <v>7.0199999999999999E-5</v>
-          </cell>
-          <cell r="C81">
-            <v>1.4799999999999999E-4</v>
-          </cell>
-          <cell r="D81">
-            <v>3.1700000000000001E-4</v>
-          </cell>
-          <cell r="E81">
-            <v>5.9800000000000001E-4</v>
-          </cell>
-          <cell r="F81">
-            <v>9.9299999999999996E-4</v>
-          </cell>
-          <cell r="G81">
-            <v>1.5100000000000001E-3</v>
-          </cell>
-          <cell r="H81">
-            <v>2.1299999999999999E-3</v>
-          </cell>
-          <cell r="I81">
-            <v>2.8500000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>4</v>
-          </cell>
-          <cell r="B82">
-            <v>7.0300000000000001E-5</v>
-          </cell>
-          <cell r="C82">
-            <v>1.4799999999999999E-4</v>
-          </cell>
-          <cell r="D82">
-            <v>3.1799999999999998E-4</v>
-          </cell>
-          <cell r="E82">
-            <v>5.9800000000000001E-4</v>
-          </cell>
-          <cell r="F82">
-            <v>9.9400000000000009E-4</v>
-          </cell>
-          <cell r="G82">
-            <v>1.5100000000000001E-3</v>
-          </cell>
-          <cell r="H82">
-            <v>2.1299999999999999E-3</v>
-          </cell>
-          <cell r="I82">
-            <v>2.8500000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>4.05</v>
-          </cell>
-          <cell r="B83">
-            <v>7.0500000000000006E-5</v>
-          </cell>
-          <cell r="C83">
-            <v>1.4799999999999999E-4</v>
-          </cell>
-          <cell r="D83">
-            <v>3.1799999999999998E-4</v>
-          </cell>
-          <cell r="E83">
-            <v>5.9900000000000003E-4</v>
-          </cell>
-          <cell r="F83">
-            <v>9.9500000000000001E-4</v>
-          </cell>
-          <cell r="G83">
-            <v>1.5100000000000001E-3</v>
-          </cell>
-          <cell r="H83">
-            <v>2.1299999999999999E-3</v>
-          </cell>
-          <cell r="I83">
-            <v>2.8500000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>4.0999999999999996</v>
-          </cell>
-          <cell r="B84">
-            <v>7.0699999999999997E-5</v>
-          </cell>
-          <cell r="C84">
-            <v>1.4899999999999999E-4</v>
-          </cell>
-          <cell r="D84">
-            <v>3.1799999999999998E-4</v>
-          </cell>
-          <cell r="E84">
-            <v>5.9999999999999995E-4</v>
-          </cell>
-          <cell r="F84">
-            <v>9.9700000000000006E-4</v>
-          </cell>
-          <cell r="G84">
-            <v>1.5100000000000001E-3</v>
-          </cell>
-          <cell r="H84">
-            <v>2.1299999999999999E-3</v>
-          </cell>
-          <cell r="I84">
-            <v>2.8600000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>4.1500000000000004</v>
-          </cell>
-          <cell r="B85">
-            <v>7.0699999999999997E-5</v>
-          </cell>
-          <cell r="C85">
-            <v>1.4899999999999999E-4</v>
-          </cell>
-          <cell r="D85">
-            <v>3.19E-4</v>
-          </cell>
-          <cell r="E85">
-            <v>6.0099999999999997E-4</v>
-          </cell>
-          <cell r="F85">
-            <v>9.9700000000000006E-4</v>
-          </cell>
-          <cell r="G85">
-            <v>1.5200000000000001E-3</v>
-          </cell>
-          <cell r="H85">
-            <v>2.1299999999999999E-3</v>
-          </cell>
-          <cell r="I85">
-            <v>2.8600000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>4.2</v>
-          </cell>
-          <cell r="B86">
-            <v>7.0900000000000002E-5</v>
-          </cell>
-          <cell r="C86">
-            <v>1.4899999999999999E-4</v>
-          </cell>
-          <cell r="D86">
-            <v>3.19E-4</v>
-          </cell>
-          <cell r="E86">
-            <v>6.02E-4</v>
-          </cell>
-          <cell r="F86">
-            <v>9.990000000000001E-4</v>
-          </cell>
-          <cell r="G86">
-            <v>1.5200000000000001E-3</v>
-          </cell>
-          <cell r="H86">
-            <v>2.14E-3</v>
-          </cell>
-          <cell r="I86">
-            <v>2.8600000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>4.25</v>
-          </cell>
-          <cell r="B87">
-            <v>7.1000000000000005E-5</v>
-          </cell>
-          <cell r="C87">
-            <v>1.4899999999999999E-4</v>
-          </cell>
-          <cell r="D87">
-            <v>3.2000000000000003E-4</v>
-          </cell>
-          <cell r="E87">
-            <v>6.02E-4</v>
-          </cell>
-          <cell r="F87">
-            <v>1E-3</v>
-          </cell>
-          <cell r="G87">
-            <v>1.5200000000000001E-3</v>
-          </cell>
-          <cell r="H87">
-            <v>2.14E-3</v>
-          </cell>
-          <cell r="I87">
-            <v>2.8700000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>4.3</v>
-          </cell>
-          <cell r="B88">
-            <v>7.1199999999999996E-5</v>
-          </cell>
-          <cell r="C88">
-            <v>1.4999999999999999E-4</v>
-          </cell>
-          <cell r="D88">
-            <v>3.2000000000000003E-4</v>
-          </cell>
-          <cell r="E88">
-            <v>6.0300000000000002E-4</v>
-          </cell>
-          <cell r="F88">
-            <v>1E-3</v>
-          </cell>
-          <cell r="G88">
-            <v>1.5200000000000001E-3</v>
-          </cell>
-          <cell r="H88">
-            <v>2.14E-3</v>
-          </cell>
-          <cell r="I88">
-            <v>2.8700000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>4.3499999999999996</v>
-          </cell>
-          <cell r="B89">
-            <v>7.1400000000000001E-5</v>
-          </cell>
-          <cell r="C89">
-            <v>1.4999999999999999E-4</v>
-          </cell>
-          <cell r="D89">
-            <v>3.21E-4</v>
-          </cell>
-          <cell r="E89">
-            <v>6.0400000000000004E-4</v>
-          </cell>
-          <cell r="F89">
-            <v>1E-3</v>
-          </cell>
-          <cell r="G89">
-            <v>1.5200000000000001E-3</v>
-          </cell>
-          <cell r="H89">
-            <v>2.14E-3</v>
-          </cell>
-          <cell r="I89">
-            <v>2.8700000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="B90">
-            <v>7.1400000000000001E-5</v>
-          </cell>
-          <cell r="C90">
-            <v>1.4999999999999999E-4</v>
-          </cell>
-          <cell r="D90">
-            <v>3.21E-4</v>
-          </cell>
-          <cell r="E90">
-            <v>6.0400000000000004E-4</v>
-          </cell>
-          <cell r="F90">
-            <v>1E-3</v>
-          </cell>
-          <cell r="G90">
-            <v>1.5299999999999999E-3</v>
-          </cell>
-          <cell r="H90">
-            <v>2.15E-3</v>
-          </cell>
-          <cell r="I90">
-            <v>2.8700000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>4.45</v>
-          </cell>
-          <cell r="B91">
-            <v>7.1699999999999995E-5</v>
-          </cell>
-          <cell r="C91">
-            <v>1.5100000000000001E-4</v>
-          </cell>
-          <cell r="D91">
-            <v>3.2200000000000002E-4</v>
-          </cell>
-          <cell r="E91">
-            <v>6.0499999999999996E-4</v>
-          </cell>
-          <cell r="F91">
-            <v>1E-3</v>
-          </cell>
-          <cell r="G91">
-            <v>1.5299999999999999E-3</v>
-          </cell>
-          <cell r="H91">
-            <v>2.15E-3</v>
-          </cell>
-          <cell r="I91">
-            <v>2.8800000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>4.5</v>
-          </cell>
-          <cell r="B92">
-            <v>7.1799999999999997E-5</v>
-          </cell>
-          <cell r="C92">
-            <v>1.5100000000000001E-4</v>
-          </cell>
-          <cell r="D92">
-            <v>3.2200000000000002E-4</v>
-          </cell>
-          <cell r="E92">
-            <v>6.0599999999999998E-4</v>
-          </cell>
-          <cell r="F92">
-            <v>1.01E-3</v>
-          </cell>
-          <cell r="G92">
-            <v>1.5299999999999999E-3</v>
-          </cell>
-          <cell r="H92">
-            <v>2.15E-3</v>
-          </cell>
-          <cell r="I92">
-            <v>2.8800000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>4.55</v>
-          </cell>
-          <cell r="B93">
-            <v>7.2000000000000002E-5</v>
-          </cell>
-          <cell r="C93">
-            <v>1.5100000000000001E-4</v>
-          </cell>
-          <cell r="D93">
-            <v>3.2299999999999999E-4</v>
-          </cell>
-          <cell r="E93">
-            <v>6.0700000000000001E-4</v>
-          </cell>
-          <cell r="F93">
-            <v>1.01E-3</v>
-          </cell>
-          <cell r="G93">
-            <v>1.5299999999999999E-3</v>
-          </cell>
-          <cell r="H93">
-            <v>2.15E-3</v>
-          </cell>
-          <cell r="I93">
-            <v>2.8800000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>4.5999999999999996</v>
-          </cell>
-          <cell r="B94">
-            <v>7.2200000000000007E-5</v>
-          </cell>
-          <cell r="C94">
-            <v>1.5100000000000001E-4</v>
-          </cell>
-          <cell r="D94">
-            <v>3.2299999999999999E-4</v>
-          </cell>
-          <cell r="E94">
-            <v>6.0800000000000003E-4</v>
-          </cell>
-          <cell r="F94">
-            <v>1.01E-3</v>
-          </cell>
-          <cell r="G94">
-            <v>1.5299999999999999E-3</v>
-          </cell>
-          <cell r="H94">
-            <v>2.15E-3</v>
-          </cell>
-          <cell r="I94">
-            <v>2.8800000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>4.6500000000000004</v>
-          </cell>
-          <cell r="B95">
-            <v>7.2200000000000007E-5</v>
-          </cell>
-          <cell r="C95">
-            <v>1.5100000000000001E-4</v>
-          </cell>
-          <cell r="D95">
-            <v>3.2400000000000001E-4</v>
-          </cell>
-          <cell r="E95">
-            <v>6.0800000000000003E-4</v>
-          </cell>
-          <cell r="F95">
-            <v>1.01E-3</v>
-          </cell>
-          <cell r="G95">
-            <v>1.5299999999999999E-3</v>
-          </cell>
-          <cell r="H95">
-            <v>2.16E-3</v>
-          </cell>
-          <cell r="I95">
-            <v>2.8900000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>4.7</v>
-          </cell>
-          <cell r="B96">
-            <v>7.25E-5</v>
-          </cell>
-          <cell r="C96">
-            <v>1.5200000000000001E-4</v>
-          </cell>
-          <cell r="D96">
-            <v>3.2400000000000001E-4</v>
-          </cell>
-          <cell r="E96">
-            <v>6.0899999999999995E-4</v>
-          </cell>
-          <cell r="F96">
-            <v>1.01E-3</v>
-          </cell>
-          <cell r="G96">
-            <v>1.5299999999999999E-3</v>
-          </cell>
-          <cell r="H96">
-            <v>2.16E-3</v>
-          </cell>
-          <cell r="I96">
-            <v>2.8900000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>4.75</v>
-          </cell>
-          <cell r="B97">
-            <v>7.2600000000000003E-5</v>
-          </cell>
-          <cell r="C97">
-            <v>1.5200000000000001E-4</v>
-          </cell>
-          <cell r="D97">
-            <v>3.2499999999999999E-4</v>
-          </cell>
-          <cell r="E97">
-            <v>6.0999999999999997E-4</v>
-          </cell>
-          <cell r="F97">
-            <v>1.01E-3</v>
-          </cell>
-          <cell r="G97">
-            <v>1.5399999999999999E-3</v>
-          </cell>
-          <cell r="H97">
-            <v>2.16E-3</v>
-          </cell>
-          <cell r="I97">
-            <v>2.8900000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>4.8</v>
-          </cell>
-          <cell r="B98">
-            <v>7.2799999999999994E-5</v>
-          </cell>
-          <cell r="C98">
-            <v>1.5200000000000001E-4</v>
-          </cell>
-          <cell r="D98">
-            <v>3.2499999999999999E-4</v>
-          </cell>
-          <cell r="E98">
-            <v>6.11E-4</v>
-          </cell>
-          <cell r="F98">
-            <v>1.01E-3</v>
-          </cell>
-          <cell r="G98">
-            <v>1.5399999999999999E-3</v>
-          </cell>
-          <cell r="H98">
-            <v>2.16E-3</v>
-          </cell>
-          <cell r="I98">
-            <v>2.8900000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>4.8499999999999996</v>
-          </cell>
-          <cell r="B99">
-            <v>7.3100000000000001E-5</v>
-          </cell>
-          <cell r="C99">
-            <v>1.5300000000000001E-4</v>
-          </cell>
-          <cell r="D99">
-            <v>3.2600000000000001E-4</v>
-          </cell>
-          <cell r="E99">
-            <v>6.1200000000000002E-4</v>
-          </cell>
-          <cell r="F99">
-            <v>1.01E-3</v>
-          </cell>
-          <cell r="G99">
-            <v>1.5399999999999999E-3</v>
-          </cell>
-          <cell r="H99">
-            <v>2.16E-3</v>
-          </cell>
-          <cell r="I99">
-            <v>2.8999999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>4.9000000000000004</v>
-          </cell>
-          <cell r="B100">
-            <v>7.3100000000000001E-5</v>
-          </cell>
-          <cell r="C100">
-            <v>1.5300000000000001E-4</v>
-          </cell>
-          <cell r="D100">
-            <v>3.2600000000000001E-4</v>
-          </cell>
-          <cell r="E100">
-            <v>6.1200000000000002E-4</v>
-          </cell>
-          <cell r="F100">
-            <v>1.01E-3</v>
-          </cell>
-          <cell r="G100">
-            <v>1.5399999999999999E-3</v>
-          </cell>
-          <cell r="H100">
-            <v>2.1700000000000001E-3</v>
-          </cell>
-          <cell r="I100">
-            <v>2.8999999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>4.95</v>
-          </cell>
-          <cell r="B101">
-            <v>7.3399999999999995E-5</v>
-          </cell>
-          <cell r="C101">
-            <v>1.5300000000000001E-4</v>
-          </cell>
-          <cell r="D101">
-            <v>3.2600000000000001E-4</v>
-          </cell>
-          <cell r="E101">
-            <v>6.1300000000000005E-4</v>
-          </cell>
-          <cell r="F101">
-            <v>1.0200000000000001E-3</v>
-          </cell>
-          <cell r="G101">
-            <v>1.5399999999999999E-3</v>
-          </cell>
-          <cell r="H101">
-            <v>2.1700000000000001E-3</v>
-          </cell>
-          <cell r="I101">
-            <v>2.8999999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>5</v>
-          </cell>
-          <cell r="B102">
-            <v>7.36E-5</v>
-          </cell>
-          <cell r="C102">
-            <v>1.5300000000000001E-4</v>
-          </cell>
-          <cell r="D102">
-            <v>3.2699999999999998E-4</v>
-          </cell>
-          <cell r="E102">
-            <v>6.1399999999999996E-4</v>
-          </cell>
-          <cell r="F102">
-            <v>1.0200000000000001E-3</v>
-          </cell>
-          <cell r="G102">
-            <v>1.5399999999999999E-3</v>
-          </cell>
-          <cell r="H102">
-            <v>2.1700000000000001E-3</v>
-          </cell>
-          <cell r="I102">
-            <v>2.8999999999999998E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12188,8 +5867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="P1:Y103"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14458,8 +8137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50905EF8-AE09-4726-B51C-0DF446F6E7C9}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
